--- a/tables/final_compiled_test_results_and_figs.xlsx
+++ b/tables/final_compiled_test_results_and_figs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch_Nav" sheetId="1" r:id="rId1"/>
@@ -1129,11 +1129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-677948192"/>
-        <c:axId val="-677943840"/>
+        <c:axId val="-1495968832"/>
+        <c:axId val="-1495967744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-677948192"/>
+        <c:axId val="-1495968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1174,7 +1174,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
@@ -1184,18 +1184,21 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Distance From Start (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1209,7 +1212,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
@@ -1219,7 +1222,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1268,12 +1271,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677943840"/>
+        <c:crossAx val="-1495967744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-677943840"/>
+        <c:axId val="-1495967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1314,7 +1317,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
@@ -1324,18 +1327,21 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> Error (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1349,7 +1355,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
@@ -1359,7 +1365,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1408,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677948192"/>
+        <c:crossAx val="-1495968832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1446,6 +1452,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1459,7 +1466,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1469,7 +1476,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2246,11 +2253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-677947648"/>
-        <c:axId val="-677950368"/>
+        <c:axId val="-1495961760"/>
+        <c:axId val="-1495957952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-677947648"/>
+        <c:axId val="-1495961760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -2318,6 +2325,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2384,12 +2392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677950368"/>
+        <c:crossAx val="-1495957952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-677950368"/>
+        <c:axId val="-1495957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2451,6 +2459,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2517,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677947648"/>
+        <c:crossAx val="-1495961760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2555,6 +2564,7 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2996,11 +3006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-677952000"/>
-        <c:axId val="-677944384"/>
+        <c:axId val="-1495959040"/>
+        <c:axId val="-1495966112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-677952000"/>
+        <c:axId val="-1495959040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3068,6 +3078,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3134,12 +3145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677944384"/>
+        <c:crossAx val="-1495966112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-677944384"/>
+        <c:axId val="-1495966112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -3201,6 +3212,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3267,7 +3279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-677952000"/>
+        <c:crossAx val="-1495959040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3293,6 +3305,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3734,11 +3747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-905679456"/>
-        <c:axId val="-720721776"/>
+        <c:axId val="-1495963936"/>
+        <c:axId val="-1495965024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-905679456"/>
+        <c:axId val="-1495963936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3800,6 +3813,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3866,12 +3880,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-720721776"/>
+        <c:crossAx val="-1495965024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-720721776"/>
+        <c:axId val="-1495965024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -3933,6 +3947,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3999,7 +4014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-905679456"/>
+        <c:crossAx val="-1495963936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4025,6 +4040,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6106,11 +6122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674287808"/>
-        <c:axId val="-674287264"/>
+        <c:axId val="-1495972640"/>
+        <c:axId val="-1495973184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674287808"/>
+        <c:axId val="-1495972640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -6238,12 +6254,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674287264"/>
+        <c:crossAx val="-1495973184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674287264"/>
+        <c:axId val="-1495973184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -6379,7 +6395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674287808"/>
+        <c:crossAx val="-1495972640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7637,11 +7653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674286176"/>
-        <c:axId val="-674289440"/>
+        <c:axId val="-1350942768"/>
+        <c:axId val="-1350943312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674286176"/>
+        <c:axId val="-1350942768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7769,12 +7785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674289440"/>
+        <c:crossAx val="-1350943312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674289440"/>
+        <c:axId val="-1350943312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
@@ -7911,7 +7927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674286176"/>
+        <c:crossAx val="-1350942768"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9437,11 +9453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674295968"/>
-        <c:axId val="-674285088"/>
+        <c:axId val="-1350951472"/>
+        <c:axId val="-1350954192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674295968"/>
+        <c:axId val="-1350951472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -9570,12 +9586,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674285088"/>
+        <c:crossAx val="-1350954192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674285088"/>
+        <c:axId val="-1350954192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -9713,7 +9729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674295968"/>
+        <c:crossAx val="-1350951472"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11251,11 +11267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674284000"/>
-        <c:axId val="-674283456"/>
+        <c:axId val="-1350943856"/>
+        <c:axId val="-1350949840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674284000"/>
+        <c:axId val="-1350943856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11384,12 +11400,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674283456"/>
+        <c:crossAx val="-1350949840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674283456"/>
+        <c:axId val="-1350949840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -11527,7 +11543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674284000"/>
+        <c:crossAx val="-1350943856"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16635,24 +16651,24 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17747,24 +17763,24 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18865,8 +18881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19092,20 +19108,19 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9"/>
     <col min="16" max="16" width="9"/>
-    <col min="23" max="23" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34820,16 +34835,16 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42833,32 +42848,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="Q7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.125" customWidth="1"/>
-    <col min="16" max="16" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/tables/final_compiled_test_results_and_figs.xlsx
+++ b/tables/final_compiled_test_results_and_figs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch_Nav" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
   <si>
     <t>5m</t>
   </si>
@@ -1129,11 +1129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1495968832"/>
-        <c:axId val="-1495967744"/>
+        <c:axId val="413509840"/>
+        <c:axId val="413510384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1495968832"/>
+        <c:axId val="413509840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1271,12 +1271,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495967744"/>
+        <c:crossAx val="413510384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1495967744"/>
+        <c:axId val="413510384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1414,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495968832"/>
+        <c:crossAx val="413509840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,11 +2253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1495961760"/>
-        <c:axId val="-1495957952"/>
+        <c:axId val="413514192"/>
+        <c:axId val="413506032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1495961760"/>
+        <c:axId val="413514192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -2392,12 +2392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495957952"/>
+        <c:crossAx val="413506032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1495957952"/>
+        <c:axId val="413506032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2526,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495961760"/>
+        <c:crossAx val="413514192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3006,11 +3006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1495959040"/>
-        <c:axId val="-1495966112"/>
+        <c:axId val="413503856"/>
+        <c:axId val="413512560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1495959040"/>
+        <c:axId val="413503856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3145,12 +3145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495966112"/>
+        <c:crossAx val="413512560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1495966112"/>
+        <c:axId val="413512560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -3279,7 +3279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495959040"/>
+        <c:crossAx val="413503856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3747,11 +3747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1495963936"/>
-        <c:axId val="-1495965024"/>
+        <c:axId val="413502224"/>
+        <c:axId val="413514736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1495963936"/>
+        <c:axId val="413502224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3880,12 +3880,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495965024"/>
+        <c:crossAx val="413514736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1495965024"/>
+        <c:axId val="413514736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -4014,7 +4014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495963936"/>
+        <c:crossAx val="413502224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6122,11 +6122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1495972640"/>
-        <c:axId val="-1495973184"/>
+        <c:axId val="413500592"/>
+        <c:axId val="413501136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1495972640"/>
+        <c:axId val="413500592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -6188,6 +6188,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6254,12 +6255,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495973184"/>
+        <c:crossAx val="413501136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1495973184"/>
+        <c:axId val="413501136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -6329,6 +6330,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6395,7 +6397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1495972640"/>
+        <c:crossAx val="413500592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6481,6 +6483,7 @@
         <c:idx val="20"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7653,11 +7656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1350942768"/>
-        <c:axId val="-1350943312"/>
+        <c:axId val="177016464"/>
+        <c:axId val="177017552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1350942768"/>
+        <c:axId val="177016464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7719,6 +7722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7785,12 +7789,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350943312"/>
+        <c:crossAx val="177017552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1350943312"/>
+        <c:axId val="177017552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
@@ -7861,6 +7865,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7927,7 +7932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350942768"/>
+        <c:crossAx val="177016464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7978,6 +7983,7 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8125,16 +8131,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.250680474899998</c:v>
+                  <c:v>1.4379256874499888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.623883931699975</c:v>
+                  <c:v>1.8904397705199898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.78391726189999</c:v>
+                  <c:v>2.1545246432799927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.552318041999978</c:v>
+                  <c:v>2.7089384818500095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8393,7 +8399,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.250680474899998</c:v>
+                  <c:v>1.4379256874499888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8488,7 +8494,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.623883931699975</c:v>
+                  <c:v>1.8904397705199898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8583,7 +8589,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.78391726189999</c:v>
+                  <c:v>2.1545246432799927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8678,7 +8684,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.552318041999978</c:v>
+                  <c:v>2.7089384818500095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9453,11 +9459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1350951472"/>
-        <c:axId val="-1350954192"/>
+        <c:axId val="177018096"/>
+        <c:axId val="177018640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1350951472"/>
+        <c:axId val="177018096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -9586,12 +9592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350954192"/>
+        <c:crossAx val="177018640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1350954192"/>
+        <c:axId val="177018640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -9692,7 +9698,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9729,7 +9735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350951472"/>
+        <c:crossAx val="177018096"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9939,16 +9945,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.902600245649992</c:v>
+                  <c:v>2.3394612909499926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.945007182999978</c:v>
+                  <c:v>1.6025620354100241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.324651741849969</c:v>
+                  <c:v>4.3849408243599983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.916532623499972</c:v>
+                  <c:v>3.3181921509000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10207,7 +10213,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.902600245649992</c:v>
+                  <c:v>2.3394612909499926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10302,7 +10308,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.945007182999978</c:v>
+                  <c:v>1.6025620354100241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10397,7 +10403,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.324651741849969</c:v>
+                  <c:v>4.3849408243599983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10492,7 +10498,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.916532623499972</c:v>
+                  <c:v>3.3181921509000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11267,11 +11273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1350943856"/>
-        <c:axId val="-1350949840"/>
+        <c:axId val="419785504"/>
+        <c:axId val="419787136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1350943856"/>
+        <c:axId val="419785504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11400,12 +11406,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350949840"/>
+        <c:crossAx val="419787136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1350949840"/>
+        <c:axId val="419787136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -11506,7 +11512,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11543,7 +11549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350943856"/>
+        <c:crossAx val="419785504"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16322,16 +16328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>842869</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>976219</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18881,7 +18887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -35679,7 +35685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L248"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="L249" sqref="L249"/>
     </sheetView>
   </sheetViews>
@@ -42848,8 +42854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="Q7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -42970,10 +42976,10 @@
         <v>35</v>
       </c>
       <c r="Q3" s="15">
-        <v>13.250680474899998</v>
+        <v>1.4379256874499888</v>
       </c>
       <c r="R3" s="15">
-        <v>1.4318473155090097</v>
+        <v>1.2452117860740748</v>
       </c>
       <c r="S3" s="15">
         <v>0.7004587177831999</v>
@@ -42994,10 +43000,10 @@
         <v>44</v>
       </c>
       <c r="Y3" s="15">
-        <v>10.902600245649992</v>
+        <v>2.3394612909499926</v>
       </c>
       <c r="Z3" s="15">
-        <v>2.4367280742217923</v>
+        <v>1.2905525335294337</v>
       </c>
       <c r="AA3" s="15">
         <v>1.4623187491849496</v>
@@ -43029,10 +43035,10 @@
         <v>0.55528034791219627</v>
       </c>
       <c r="F4">
-        <v>13.250680474899998</v>
+        <v>1.4379256874499888</v>
       </c>
       <c r="G4">
-        <v>1.4318473155090097</v>
+        <v>1.2452117860740748</v>
       </c>
       <c r="I4">
         <v>1.4623187491849496</v>
@@ -43047,19 +43053,19 @@
         <v>0.71061691307878794</v>
       </c>
       <c r="M4">
-        <v>10.902600245649992</v>
+        <v>2.3394612909499926</v>
       </c>
       <c r="N4">
-        <v>2.4367280742217923</v>
+        <v>1.2905525335294337</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="15">
-        <v>13.623883931699975</v>
+        <v>1.8904397705199898</v>
       </c>
       <c r="R4" s="15">
-        <v>2.7144691155616107</v>
+        <v>1.5553417988587652</v>
       </c>
       <c r="S4" s="15">
         <v>0.6610034153655</v>
@@ -43080,10 +43086,10 @@
         <v>45</v>
       </c>
       <c r="Y4" s="15">
-        <v>11.945007182999978</v>
+        <v>1.6025620354100241</v>
       </c>
       <c r="Z4" s="15">
-        <v>3.2076058791807376</v>
+        <v>2.2193070676137543</v>
       </c>
       <c r="AA4" s="15">
         <v>1.2712261936695</v>
@@ -43112,10 +43118,10 @@
         <v>36</v>
       </c>
       <c r="Q5" s="15">
-        <v>10.78391726189999</v>
+        <v>2.1545246432799927</v>
       </c>
       <c r="R5" s="15">
-        <v>2.5499218360051943</v>
+        <v>1.8262796506149472</v>
       </c>
       <c r="S5" s="15">
         <v>0.53135775189925016</v>
@@ -43136,10 +43142,10 @@
         <v>46</v>
       </c>
       <c r="Y5" s="15">
-        <v>16.324651741849969</v>
+        <v>4.3849408243599983</v>
       </c>
       <c r="Z5" s="15">
-        <v>2.5622960703749942</v>
+        <v>2.4603622093955124</v>
       </c>
       <c r="AA5" s="15">
         <v>0.77643865897499953</v>
@@ -43198,10 +43204,10 @@
         <v>37</v>
       </c>
       <c r="Q6" s="15">
-        <v>10.552318041999978</v>
+        <v>2.7089384818500095</v>
       </c>
       <c r="R6" s="15">
-        <v>2.4833699644278719</v>
+        <v>2.7089384818500095</v>
       </c>
       <c r="S6" s="15">
         <v>0.30866924089999948</v>
@@ -43222,10 +43228,10 @@
         <v>47</v>
       </c>
       <c r="Y6" s="15">
-        <v>13.916532623499972</v>
+        <v>3.3181921509000007</v>
       </c>
       <c r="Z6" s="15">
-        <v>3.3360145491041271</v>
+        <v>1.9487186388892102</v>
       </c>
       <c r="AA6" s="15">
         <v>0.79282525708999929</v>
@@ -43257,10 +43263,10 @@
         <v>0.4624551752617776</v>
       </c>
       <c r="F7">
-        <v>13.623883931699975</v>
+        <v>1.8904397705199898</v>
       </c>
       <c r="G7">
-        <v>2.7144691155616107</v>
+        <v>1.5553417988587652</v>
       </c>
       <c r="I7">
         <v>1.2712261936695</v>
@@ -43275,19 +43281,19 @@
         <v>0.9130975157014134</v>
       </c>
       <c r="M7">
-        <v>11.945007182999978</v>
+        <v>1.6025620354100241</v>
       </c>
       <c r="N7">
-        <v>3.2076058791807376</v>
+        <v>2.2193070676137543</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q7" s="15">
-        <v>12.052699927624989</v>
+        <v>2.047957145774995</v>
       </c>
       <c r="R7" s="15">
-        <v>2.5528786527080141</v>
+        <v>1.5251230469105566</v>
       </c>
       <c r="S7" s="15">
         <v>0.55037228148698758</v>
@@ -43305,10 +43311,10 @@
         <v>7</v>
       </c>
       <c r="Y7" s="15">
-        <v>13.272197948499979</v>
+        <v>2.911289075405004</v>
       </c>
       <c r="Z7" s="15">
-        <v>3.3275557032891112</v>
+        <v>2.0541105197655893</v>
       </c>
       <c r="AA7" s="15">
         <v>1.075702214729862</v>
@@ -43390,10 +43396,10 @@
         <v>0.69631842561330615</v>
       </c>
       <c r="F10">
-        <v>10.78391726189999</v>
+        <v>2.1545246432799927</v>
       </c>
       <c r="G10">
-        <v>2.5499218360051943</v>
+        <v>1.8262796506149472</v>
       </c>
       <c r="I10">
         <v>0.77643865897499953</v>
@@ -43408,10 +43414,10 @@
         <v>0.32312334800954079</v>
       </c>
       <c r="M10">
-        <v>16.324651741849969</v>
+        <v>4.3849408243599983</v>
       </c>
       <c r="N10">
-        <v>2.5622960703749942</v>
+        <v>2.4603622093955124</v>
       </c>
     </row>
     <row r="11" spans="2:31">
@@ -43474,10 +43480,10 @@
         <v>1.3841407208010446</v>
       </c>
       <c r="F13">
-        <v>10.552318041999978</v>
+        <v>2.7089384818500095</v>
       </c>
       <c r="G13">
-        <v>2.4833699644278719</v>
+        <v>0.95925739135161003</v>
       </c>
       <c r="I13">
         <v>0.79282525708999929</v>
@@ -43492,10 +43498,10 @@
         <v>0.40020607912455636</v>
       </c>
       <c r="M13">
-        <v>13.916532623499972</v>
+        <v>3.3181921509000007</v>
       </c>
       <c r="N13">
-        <v>3.3360145491041271</v>
+        <v>1.9487186388892102</v>
       </c>
     </row>
     <row r="14" spans="2:31">
@@ -43520,10 +43526,10 @@
         <v>3.7531144658241318</v>
       </c>
       <c r="F15">
-        <v>12.052699927624989</v>
+        <v>2.047957145774995</v>
       </c>
       <c r="G15">
-        <v>2.5528786527080141</v>
+        <v>1.5251230469105566</v>
       </c>
       <c r="I15">
         <v>1.075702214729862</v>
@@ -43538,10 +43544,15 @@
         <v>2.8849065320762284</v>
       </c>
       <c r="M15">
-        <v>13.272197948499979</v>
+        <v>2.911289075405004</v>
       </c>
       <c r="N15">
-        <v>3.3275557032891112</v>
+        <v>2.0541105197655893</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31">
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -43569,10 +43580,12 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>13.250680474899998</v>
+        <f>F4</f>
+        <v>1.4379256874499888</v>
       </c>
       <c r="D19">
-        <v>1.4318473155090097</v>
+        <f>G4</f>
+        <v>1.2452117860740748</v>
       </c>
       <c r="E19">
         <v>0.7004587177831999</v>
@@ -43592,10 +43605,12 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <v>13.623883931699975</v>
+        <f>F7</f>
+        <v>1.8904397705199898</v>
       </c>
       <c r="D20">
-        <v>2.7144691155616107</v>
+        <f>G7</f>
+        <v>1.5553417988587652</v>
       </c>
       <c r="E20">
         <v>0.6610034153655</v>
@@ -43615,10 +43630,12 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>10.78391726189999</v>
+        <f>F10</f>
+        <v>2.1545246432799927</v>
       </c>
       <c r="D21">
-        <v>2.5499218360051943</v>
+        <f>G10</f>
+        <v>1.8262796506149472</v>
       </c>
       <c r="E21">
         <v>0.53135775189925016</v>
@@ -43638,10 +43655,10 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>10.552318041999978</v>
+        <v>2.7089384818500095</v>
       </c>
       <c r="D22">
-        <v>2.4833699644278719</v>
+        <v>2.7089384818500095</v>
       </c>
       <c r="E22">
         <v>0.30866924089999948</v>
@@ -43662,11 +43679,11 @@
       </c>
       <c r="C23">
         <f>F15</f>
-        <v>12.052699927624989</v>
+        <v>2.047957145774995</v>
       </c>
       <c r="D23">
         <f>G15</f>
-        <v>2.5528786527080141</v>
+        <v>1.5251230469105566</v>
       </c>
       <c r="E23">
         <v>0.55037228148698758</v>
@@ -43710,11 +43727,11 @@
       </c>
       <c r="C26">
         <f>M4</f>
-        <v>10.902600245649992</v>
+        <v>2.3394612909499926</v>
       </c>
       <c r="D26">
         <f>N4</f>
-        <v>2.4367280742217923</v>
+        <v>1.2905525335294337</v>
       </c>
       <c r="E26">
         <f>I4</f>
@@ -43739,11 +43756,11 @@
       </c>
       <c r="C27">
         <f>M7</f>
-        <v>11.945007182999978</v>
+        <v>1.6025620354100241</v>
       </c>
       <c r="D27">
         <f>N7</f>
-        <v>3.2076058791807376</v>
+        <v>2.2193070676137543</v>
       </c>
       <c r="E27">
         <f>I7</f>
@@ -43768,11 +43785,11 @@
       </c>
       <c r="C28">
         <f>M10</f>
-        <v>16.324651741849969</v>
+        <v>4.3849408243599983</v>
       </c>
       <c r="D28">
         <f>N10</f>
-        <v>2.5622960703749942</v>
+        <v>2.4603622093955124</v>
       </c>
       <c r="E28">
         <f>I10</f>
@@ -43797,11 +43814,11 @@
       </c>
       <c r="C29">
         <f>M13</f>
-        <v>13.916532623499972</v>
+        <v>3.3181921509000007</v>
       </c>
       <c r="D29">
         <f>N13</f>
-        <v>3.3360145491041271</v>
+        <v>1.9487186388892102</v>
       </c>
       <c r="E29">
         <f>I13</f>
@@ -43826,11 +43843,11 @@
       </c>
       <c r="C30">
         <f>M15</f>
-        <v>13.272197948499979</v>
+        <v>2.911289075405004</v>
       </c>
       <c r="D30">
         <f>N15</f>
-        <v>3.3275557032891112</v>
+        <v>2.0541105197655893</v>
       </c>
       <c r="E30">
         <f>I15</f>

--- a/tables/final_compiled_test_results_and_figs.xlsx
+++ b/tables/final_compiled_test_results_and_figs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="65">
   <si>
     <t>5m</t>
   </si>
@@ -232,12 +232,19 @@
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,14 +297,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -318,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -330,22 +337,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,11 +1142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413509840"/>
-        <c:axId val="413510384"/>
+        <c:axId val="-229806880"/>
+        <c:axId val="-229816128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413509840"/>
+        <c:axId val="-229806880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1271,12 +1284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413510384"/>
+        <c:crossAx val="-229816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413510384"/>
+        <c:axId val="-229816128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1414,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413509840"/>
+        <c:crossAx val="-229806880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413514192"/>
-        <c:axId val="413506032"/>
+        <c:axId val="-229813952"/>
+        <c:axId val="-229809056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413514192"/>
+        <c:axId val="-229813952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -2392,12 +2405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413506032"/>
+        <c:crossAx val="-229809056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413506032"/>
+        <c:axId val="-229809056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2526,7 +2539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413514192"/>
+        <c:crossAx val="-229813952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3006,11 +3019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413503856"/>
-        <c:axId val="413512560"/>
+        <c:axId val="-229817216"/>
+        <c:axId val="-229803072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413503856"/>
+        <c:axId val="-229817216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3145,12 +3158,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413512560"/>
+        <c:crossAx val="-229803072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413512560"/>
+        <c:axId val="-229803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -3279,7 +3292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413503856"/>
+        <c:crossAx val="-229817216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3747,11 +3760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413502224"/>
-        <c:axId val="413514736"/>
+        <c:axId val="-229815584"/>
+        <c:axId val="-229814496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413502224"/>
+        <c:axId val="-229815584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3880,12 +3893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413514736"/>
+        <c:crossAx val="-229814496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413514736"/>
+        <c:axId val="-229814496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -4014,7 +4027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413502224"/>
+        <c:crossAx val="-229815584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6122,11 +6135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413500592"/>
-        <c:axId val="413501136"/>
+        <c:axId val="-231330304"/>
+        <c:axId val="-84761952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413500592"/>
+        <c:axId val="-231330304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -6255,12 +6268,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413501136"/>
+        <c:crossAx val="-84761952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413501136"/>
+        <c:axId val="-84761952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -6397,7 +6410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413500592"/>
+        <c:crossAx val="-231330304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7656,11 +7669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177016464"/>
-        <c:axId val="177017552"/>
+        <c:axId val="-84761408"/>
+        <c:axId val="-84755968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177016464"/>
+        <c:axId val="-84761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7789,12 +7802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177017552"/>
+        <c:crossAx val="-84755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177017552"/>
+        <c:axId val="-84755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
@@ -7932,7 +7945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177016464"/>
+        <c:crossAx val="-84761408"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9459,11 +9472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177018096"/>
-        <c:axId val="177018640"/>
+        <c:axId val="-84754880"/>
+        <c:axId val="-84760864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177018096"/>
+        <c:axId val="-84754880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -9592,12 +9605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177018640"/>
+        <c:crossAx val="-84760864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177018640"/>
+        <c:axId val="-84760864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -9698,7 +9711,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9735,7 +9748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177018096"/>
+        <c:crossAx val="-84754880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11273,11 +11286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419785504"/>
-        <c:axId val="419787136"/>
+        <c:axId val="-84759232"/>
+        <c:axId val="-84758688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419785504"/>
+        <c:axId val="-84759232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11406,12 +11419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419787136"/>
+        <c:crossAx val="-84758688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419787136"/>
+        <c:axId val="-84758688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -11512,7 +11525,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11549,7 +11562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419785504"/>
+        <c:crossAx val="-84759232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16651,10 +16664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="L31" sqref="L31:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -16679,21 +16692,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -17748,6 +17761,35 @@
       <c r="R34" s="12">
         <f t="shared" si="4"/>
         <v>1.9870790260500214E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18">
+      <c r="L35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="12">
+        <f>AVERAGE(M32:M34)</f>
+        <v>4.665</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" ref="N35:R35" si="7">AVERAGE(N32:N34)</f>
+        <v>2.8495772789141753</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8533333333333335</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="7"/>
+        <v>1.3298605415632234</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="7"/>
+        <v>2.74598468824E-2</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0014983239344527E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17763,10 +17805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -17791,21 +17833,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -18871,6 +18913,35 @@
       <c r="R38" s="12">
         <f t="shared" si="5"/>
         <v>1.1604868132979061E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18">
+      <c r="L39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="12">
+        <f>AVERAGE(M36:M38)</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" ref="N39:R39" si="7">AVERAGE(N36:N38)</f>
+        <v>3.9715420975522462</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="7"/>
+        <v>3.2449999999999997</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" si="7"/>
+        <v>2.8135759169278312</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="7"/>
+        <v>2.6645359898599997E-2</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0946195445744335E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18887,8 +18958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19110,8 +19181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView topLeftCell="V13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView topLeftCell="V10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -19128,6 +19199,11 @@
     <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -19540,32 +19616,59 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
+      <c r="AE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="12">
+        <f>AVERAGE(AF4:AF9)</f>
+        <v>32.980284721724487</v>
+      </c>
+      <c r="AG10" s="12">
+        <f t="shared" ref="AG10:AK10" si="0">AVERAGE(AG4:AG9)</f>
+        <v>18.260957317493936</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="0"/>
+        <v>126.36954109659943</v>
+      </c>
+      <c r="AI10" s="12">
+        <f t="shared" si="0"/>
+        <v>8.0733355559358806</v>
+      </c>
+      <c r="AJ10" s="12">
+        <f t="shared" si="0"/>
+        <v>117.6091874897955</v>
+      </c>
+      <c r="AK10" s="12">
+        <f t="shared" si="0"/>
+        <v>15.075808627901134</v>
+      </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:37">
       <c r="D12" s="10" t="s">
@@ -19927,11 +20030,11 @@
         <v>5.0411645755102041E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:F18" si="0">AVERAGE(E13:E17)</f>
+        <f t="shared" ref="E18:F18" si="1">AVERAGE(E13:E17)</f>
         <v>0.14887388379591954</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15096087085714244</v>
       </c>
       <c r="G18">
@@ -19948,11 +20051,11 @@
         <v>2.3060372204081636E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:L18" si="1">AVERAGE(K13:K17)</f>
+        <f t="shared" ref="K18:L18" si="2">AVERAGE(K13:K17)</f>
         <v>0.12838769693877666</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17323541134693837</v>
       </c>
       <c r="M18">
@@ -20096,30 +20199,30 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
     </row>
     <row r="28" spans="1:21">
       <c r="D28" s="10" t="s">
@@ -20481,11 +20584,11 @@
         <v>2.371209908612245E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="2">AVERAGE(E29:E33)</f>
+        <f t="shared" ref="E34" si="3">AVERAGE(E29:E33)</f>
         <v>0.15181541017551142</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="3">AVERAGE(F29:F33)</f>
+        <f t="shared" ref="F34" si="4">AVERAGE(F29:F33)</f>
         <v>0.1175712866857139</v>
       </c>
       <c r="G34">
@@ -20502,11 +20605,11 @@
         <v>2.4355517121775517E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34" si="4">AVERAGE(K29:K33)</f>
+        <f t="shared" ref="K34" si="5">AVERAGE(K29:K33)</f>
         <v>0.13865597546530731</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="5">AVERAGE(L29:L33)</f>
+        <f t="shared" ref="L34" si="6">AVERAGE(L29:L33)</f>
         <v>4.2796422130611807E-2</v>
       </c>
       <c r="M34">
@@ -20519,15 +20622,15 @@
         <v>1.6371628170412607E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34" si="6">AVERAGE(P29:P33)</f>
+        <f t="shared" ref="P34" si="7">AVERAGE(P29:P33)</f>
         <v>3.9156004204081621E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34" si="7">AVERAGE(Q29:Q33)</f>
+        <f t="shared" ref="Q34" si="8">AVERAGE(Q29:Q33)</f>
         <v>7.2727680816338609E-3</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34" si="8">AVERAGE(R29:R33)</f>
+        <f t="shared" ref="R34" si="9">AVERAGE(R29:R33)</f>
         <v>0.10524139840816285</v>
       </c>
       <c r="S34">
@@ -20784,23 +20887,23 @@
         <v>50.411645755102043</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" ref="E43:I43" si="9">E38*1000</f>
+        <f t="shared" ref="E43:I43" si="10">E38*1000</f>
         <v>22.812616890718406</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148.87388379591954</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.329816685869007</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150.96087085714242</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.613304472821564</v>
       </c>
       <c r="J43" s="4"/>
@@ -20812,23 +20915,23 @@
         <v>23.71209908612245</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:Q43" si="10">M38*1000</f>
+        <f t="shared" ref="M43:Q43" si="11">M38*1000</f>
         <v>16.059335823724702</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>151.81541017551143</v>
       </c>
       <c r="O43" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8562847757825898</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>117.5712866857139</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.807851760857263</v>
       </c>
     </row>
@@ -20837,27 +20940,27 @@
         <v>17</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" ref="D44:I44" si="11">D39*1000</f>
+        <f t="shared" ref="D44:I44" si="12">D39*1000</f>
         <v>23.060372204081638</v>
       </c>
       <c r="E44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.85094483747665</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128.38769693877666</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.482378513474547</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>173.23541134693838</v>
       </c>
       <c r="I44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.235821145735382</v>
       </c>
       <c r="J44" s="4"/>
@@ -20865,27 +20968,27 @@
         <v>17</v>
       </c>
       <c r="L44" s="12">
-        <f t="shared" ref="L44:Q44" si="12">L39*1000</f>
+        <f t="shared" ref="L44:Q44" si="13">L39*1000</f>
         <v>24.355517121775517</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.472085512364</v>
       </c>
       <c r="N44" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>138.65597546530731</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.772731672518213</v>
       </c>
       <c r="P44" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.796422130611809</v>
       </c>
       <c r="Q44" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.371628170412606</v>
       </c>
     </row>
@@ -20894,27 +20997,27 @@
         <v>18</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" ref="D45:I45" si="13">D40*1000</f>
+        <f t="shared" ref="D45:I45" si="14">D40*1000</f>
         <v>37.186069959183662</v>
       </c>
       <c r="E45" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.850241997686163</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.2115121224478</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.296972233069174</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115.84973551020366</v>
       </c>
       <c r="I45" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.265329219752218</v>
       </c>
       <c r="J45" s="4"/>
@@ -20922,27 +21025,27 @@
         <v>18</v>
       </c>
       <c r="L45" s="12">
-        <f t="shared" ref="L45:Q45" si="14">L40*1000</f>
+        <f t="shared" ref="L45:Q45" si="15">L40*1000</f>
         <v>39.156004204081619</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23.520518842993702</v>
       </c>
       <c r="N45" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.2727680816338607</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.7018294549017585</v>
       </c>
       <c r="P45" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>105.24139840816285</v>
       </c>
       <c r="Q45" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1609169978277656</v>
       </c>
     </row>
@@ -34837,8 +34940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -34846,12 +34949,12 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -35023,6 +35126,33 @@
       <c r="H8" t="s">
         <v>16</v>
       </c>
+      <c r="W8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="15">
+        <f>AVERAGE(X5:X7)</f>
+        <v>87.499831319727903</v>
+      </c>
+      <c r="Y8" s="15">
+        <f t="shared" ref="Y8:AC8" si="0">AVERAGE(Y5:Y7)</f>
+        <v>37.23707457109218</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="0"/>
+        <v>30.220642680272491</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="0"/>
+        <v>5.5938400446366385</v>
+      </c>
+      <c r="AB8" s="15">
+        <f t="shared" si="0"/>
+        <v>55.104023142857557</v>
+      </c>
+      <c r="AC8" s="15">
+        <f t="shared" si="0"/>
+        <v>7.8426592784375861</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="D10" s="9" t="s">
@@ -35030,30 +35160,30 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:29">
       <c r="D12" s="10" t="s">
@@ -35436,11 +35566,11 @@
         <v>0.16385187742857152</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:L18" si="0">AVERAGE(K13:K17)</f>
+        <f t="shared" ref="K18:L18" si="1">AVERAGE(K13:K17)</f>
         <v>3.631794167347057E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5307936734694253E-2</v>
       </c>
       <c r="M18">
@@ -35592,23 +35722,23 @@
         <v>14.321220326530609</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" ref="E26:I26" si="1">E21*1000</f>
+        <f t="shared" ref="E26:I26" si="2">E21*1000</f>
         <v>9.7528125996814889</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0354551428582948</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6514173157597045</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.768485061224908</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4998927479912481</v>
       </c>
     </row>
@@ -35617,27 +35747,27 @@
         <v>2</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" ref="D27:I27" si="2">D22*1000</f>
+        <f t="shared" ref="D27:I27" si="3">D22*1000</f>
         <v>163.85187742857153</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.584815382371353</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.317941673470571</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6522160335718805</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.307936734694252</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.457090225613635</v>
       </c>
     </row>
@@ -35646,27 +35776,27 @@
         <v>3</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:I28" si="3">D23*1000</f>
+        <f t="shared" ref="D28:I28" si="4">D23*1000</f>
         <v>84.326396204081604</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.373595731223702</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.308531224488604</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4778867845783301</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.235647632653496</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5709948617078737</v>
       </c>
     </row>
@@ -42852,10 +42982,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AE30"/>
+  <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Z7"/>
+    <sheetView tabSelected="1" topLeftCell="Q22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32:AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -43555,7 +43685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:30">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -43575,7 +43705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:30">
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
@@ -43600,7 +43730,7 @@
         <v>0.55528034791219627</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:30">
       <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
@@ -43625,7 +43755,7 @@
         <v>0.4624551752617776</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:30">
       <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
@@ -43650,7 +43780,7 @@
         <v>0.69631842561330615</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:30">
       <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
@@ -43673,7 +43803,7 @@
         <v>1.3841407208010446</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:30">
       <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
@@ -43698,10 +43828,10 @@
         <v>3.7531144658241318</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:30">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:30">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -43721,7 +43851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:30">
       <c r="B26" s="14" t="s">
         <v>44</v>
       </c>
@@ -43750,7 +43880,7 @@
         <v>0.71061691307878794</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:30">
       <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
@@ -43779,7 +43909,7 @@
         <v>0.9130975157014134</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:30">
       <c r="B28" s="14" t="s">
         <v>46</v>
       </c>
@@ -43808,7 +43938,7 @@
         <v>0.32312334800954079</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:30">
       <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
@@ -43837,7 +43967,7 @@
         <v>0.40020607912455636</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:30">
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
@@ -43864,6 +43994,280 @@
       <c r="H30">
         <f>L15</f>
         <v>2.8849065320762284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="Q32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="16:31">
+      <c r="P33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>1.4379256874499888</v>
+      </c>
+      <c r="R33" s="15">
+        <v>1.2452117860740748</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0.7004587177831999</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.42779289942026016</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0.8226217746508</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0.55528034791219627</v>
+      </c>
+      <c r="X33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>2.3394612909499926</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>1.2905525335294337</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>1.4623187491849496</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>0.20569798692045349</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>1.1723496824234998</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>0.71061691307878794</v>
+      </c>
+      <c r="AE33" s="15"/>
+    </row>
+    <row r="34" spans="16:31">
+      <c r="P34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>1.8904397705199898</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1.5553417988587652</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0.6610034153655</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0.38951274739045838</v>
+      </c>
+      <c r="U34" s="15">
+        <v>1.8863402021275</v>
+      </c>
+      <c r="V34" s="15">
+        <v>0.4624551752617776</v>
+      </c>
+      <c r="X34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>1.6025620354100241</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>2.2193070676137543</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>1.2712261936695</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>0.21773132733639453</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>1.4809864287569001</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>0.9130975157014134</v>
+      </c>
+      <c r="AE34" s="15"/>
+    </row>
+    <row r="35" spans="16:31">
+      <c r="P35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>2.1545246432799927</v>
+      </c>
+      <c r="R35" s="15">
+        <v>1.8262796506149472</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0.53135775189925016</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0.3041001456456614</v>
+      </c>
+      <c r="U35" s="15">
+        <v>4.0568488973765007</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0.69631842561330615</v>
+      </c>
+      <c r="X35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y35" s="15">
+        <v>4.3849408243599983</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>2.4603622093955124</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>0.77643865897499953</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>0.34194728385708173</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>3.8070138477485003</v>
+      </c>
+      <c r="AD35" s="15">
+        <v>0.32312334800954079</v>
+      </c>
+      <c r="AE35" s="15"/>
+    </row>
+    <row r="36" spans="16:31">
+      <c r="P36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>2.7089384818500095</v>
+      </c>
+      <c r="R36" s="15">
+        <v>2.7089384818500095</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0.30866924089999948</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0.21153583906201062</v>
+      </c>
+      <c r="U36" s="15">
+        <v>10.254127724689999</v>
+      </c>
+      <c r="V36" s="15">
+        <v>1.3841407208010446</v>
+      </c>
+      <c r="X36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>3.3181921509000007</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>1.9487186388892102</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0.79282525708999929</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0.59831355441738954</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>8.2129777165049997</v>
+      </c>
+      <c r="AD36" s="15">
+        <v>0.40020607912455636</v>
+      </c>
+      <c r="AE36" s="15"/>
+    </row>
+    <row r="37" spans="16:31">
+      <c r="P37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>2.047957145774995</v>
+      </c>
+      <c r="R37" s="15">
+        <f>AVERAGE(R33:R36)</f>
+        <v>1.8339429293494491</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" ref="S37:V37" si="0">AVERAGE(S33:S36)</f>
+        <v>0.55037228148698747</v>
+      </c>
+      <c r="T37" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3332354078795976</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" si="0"/>
+        <v>4.2549846497111998</v>
+      </c>
+      <c r="V37" s="15">
+        <f t="shared" si="0"/>
+        <v>0.77454866739708117</v>
+      </c>
+      <c r="X37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="15">
+        <f>AVERAGE(Y33:Y36)</f>
+        <v>2.911289075405004</v>
+      </c>
+      <c r="Z37" s="15">
+        <f t="shared" ref="Z37:AD37" si="1">AVERAGE(Z33:Z36)</f>
+        <v>1.9797351123569777</v>
+      </c>
+      <c r="AA37" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0757022147298623</v>
+      </c>
+      <c r="AB37" s="15">
+        <f t="shared" si="1"/>
+        <v>0.3409225381328298</v>
+      </c>
+      <c r="AC37" s="15">
+        <f t="shared" si="1"/>
+        <v>3.6683319188584749</v>
+      </c>
+      <c r="AD37" s="15">
+        <f t="shared" si="1"/>
+        <v>0.58676096397857458</v>
       </c>
     </row>
   </sheetData>

--- a/tables/final_compiled_test_results_and_figs.xlsx
+++ b/tables/final_compiled_test_results_and_figs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch_Nav" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,11 +1142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-229806880"/>
-        <c:axId val="-229816128"/>
+        <c:axId val="1042457680"/>
+        <c:axId val="1042456592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-229806880"/>
+        <c:axId val="1042457680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1284,12 +1284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229816128"/>
+        <c:crossAx val="1042456592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-229816128"/>
+        <c:axId val="1042456592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1427,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229806880"/>
+        <c:crossAx val="1042457680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2266,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-229813952"/>
-        <c:axId val="-229809056"/>
+        <c:axId val="1042459312"/>
+        <c:axId val="1042464752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-229813952"/>
+        <c:axId val="1042459312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -2405,12 +2405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229809056"/>
+        <c:crossAx val="1042464752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-229809056"/>
+        <c:axId val="1042464752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2539,7 +2539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229813952"/>
+        <c:crossAx val="1042459312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3019,11 +3019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-229817216"/>
-        <c:axId val="-229803072"/>
+        <c:axId val="1042461488"/>
+        <c:axId val="938065344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-229817216"/>
+        <c:axId val="1042461488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3158,12 +3158,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229803072"/>
+        <c:crossAx val="938065344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-229803072"/>
+        <c:axId val="938065344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -3292,7 +3292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229817216"/>
+        <c:crossAx val="1042461488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3760,11 +3760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-229815584"/>
-        <c:axId val="-229814496"/>
+        <c:axId val="938061536"/>
+        <c:axId val="938068608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-229815584"/>
+        <c:axId val="938061536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3893,12 +3893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229814496"/>
+        <c:crossAx val="938068608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-229814496"/>
+        <c:axId val="938068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -4027,7 +4027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-229815584"/>
+        <c:crossAx val="938061536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4216,10 +4216,10 @@
                   <c:v>23.060372204081638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.186069959183662</c:v>
+                  <c:v>24.355517121775517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.355517121775517</c:v>
+                  <c:v>37.186069959183662</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>39.156004204081619</c:v>
@@ -4310,10 +4310,10 @@
                   <c:v>128.38769693877666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.2115121224478</c:v>
+                  <c:v>138.65597546530731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.65597546530731</c:v>
+                  <c:v>183.2115121224478</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.2727680816338607</c:v>
@@ -4404,10 +4404,10 @@
                   <c:v>173.23541134693838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.84973551020366</c:v>
+                  <c:v>42.796422130611809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.796422130611809</c:v>
+                  <c:v>115.84973551020366</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>105.24139840816285</c:v>
@@ -4790,7 +4790,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.186069959183662</c:v>
+                  <c:v>24.355517121775517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,7 +4885,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24.355517121775517</c:v>
+                  <c:v>37.186069959183662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,7 +5360,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>183.2115121224478</c:v>
+                  <c:v>138.65597546530731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,7 +5455,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>138.65597546530731</c:v>
+                  <c:v>183.2115121224478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5930,7 +5930,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115.84973551020366</c:v>
+                  <c:v>42.796422130611809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6025,7 +6025,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42.796422130611809</c:v>
+                  <c:v>115.84973551020366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6135,11 +6135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-231330304"/>
-        <c:axId val="-84761952"/>
+        <c:axId val="938063712"/>
+        <c:axId val="938072416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-231330304"/>
+        <c:axId val="938063712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -6268,12 +6268,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84761952"/>
+        <c:crossAx val="938072416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84761952"/>
+        <c:axId val="938072416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -6410,7 +6410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-231330304"/>
+        <c:crossAx val="938063712"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7669,11 +7669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84761408"/>
-        <c:axId val="-84755968"/>
+        <c:axId val="938060448"/>
+        <c:axId val="938069152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84761408"/>
+        <c:axId val="938060448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -7802,12 +7802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84755968"/>
+        <c:crossAx val="938069152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84755968"/>
+        <c:axId val="938069152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
@@ -7945,7 +7945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84761408"/>
+        <c:crossAx val="938060448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9472,11 +9472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84754880"/>
-        <c:axId val="-84760864"/>
+        <c:axId val="938068064"/>
+        <c:axId val="938069696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84754880"/>
+        <c:axId val="938068064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -9605,12 +9605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84760864"/>
+        <c:crossAx val="938069696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84760864"/>
+        <c:axId val="938069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -9748,7 +9748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84754880"/>
+        <c:crossAx val="938068064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11286,11 +11286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84759232"/>
-        <c:axId val="-84758688"/>
+        <c:axId val="938067520"/>
+        <c:axId val="938060992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84759232"/>
+        <c:axId val="938067520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11419,12 +11419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84758688"/>
+        <c:crossAx val="938060992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84758688"/>
+        <c:axId val="938060992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -11562,7 +11562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84759232"/>
+        <c:crossAx val="938067520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16269,16 +16269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122705</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>124199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10363</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16667,7 +16667,1147 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:R35"/>
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="6">
+        <f>7-5.1</f>
+        <v>1.9000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="6">
+        <f>7-5.7</f>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="6">
+        <f>7-5.3</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6">
+        <f>8.2-7</f>
+        <v>1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="6">
+        <f>7.1-7</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <f>7-6.6</f>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="6">
+        <f>9.3-7</f>
+        <v>2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J10" s="6">
+        <f>8-7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="J11" s="6">
+        <f>7-5.8</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J12" s="6">
+        <f>7-6.1</f>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="J13" s="6">
+        <f>5.1-2.2</f>
+        <v>2.8999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="6">
+        <f>4.2-2.2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="6">
+        <f>5.4-2.2</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="6">
+        <f>5.6-2.2</f>
+        <v>3.3999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J17" s="6">
+        <f>5.1-2.2</f>
+        <v>2.8999999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J18" s="6">
+        <f>2.2-2.1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="J19" s="6">
+        <f>4.7-2.2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="J20" s="6">
+        <f>2.2-2.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="J21" s="6">
+        <f>2.2-2.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="J22" s="6">
+        <f>2.4-2.2</f>
+        <v>0.19999999999999973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6">
+        <f>AVERAGE((B3:B22))</f>
+        <v>4.25</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:J24" si="0">AVERAGE((C3:C22))</f>
+        <v>1.4749999999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5650000000000002</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9249999999999994</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6949999999999998</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>5.82</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <f>STDEV(B3:B22)</f>
+        <v>2.5037866060071998</v>
+      </c>
+      <c r="C25" s="6">
+        <f>STDEV(C3:C22)</f>
+        <v>1.2268380410418354</v>
+      </c>
+      <c r="D25" s="6">
+        <f>STDEV(D3:D22)</f>
+        <v>1.053452968999915</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" ref="E25:J25" si="1">STDEV(E3:E22)</f>
+        <v>2.6183311277867145</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6560177344588152</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2483568147136885</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4266141029486121</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.10672584918902</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1385124181649446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <f>B24+B25*3</f>
+        <v>11.761359818021599</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ref="C26:J26" si="2">C24+C25*3</f>
+        <v>5.1555141231255055</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7253589069997455</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="2"/>
+        <v>11.779993383360143</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="2"/>
+        <v>7.5330532033764452</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4400704441410657</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>16.099842308845837</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8401775475670599</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8755372544948337</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="N27" s="12">
+        <v>2.5037866060071998</v>
+      </c>
+      <c r="O27" s="12">
+        <v>1.4749999999999999</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1.2268380410418354</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>1.5650000000000002</v>
+      </c>
+      <c r="R27" s="12">
+        <v>1.053452968999915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="12">
+        <v>3.9249999999999994</v>
+      </c>
+      <c r="N28" s="12">
+        <v>2.6183311277867145</v>
+      </c>
+      <c r="O28" s="12">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1.6560177344588152</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>1.6949999999999998</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1.2483568147136885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" s="6">
+        <f>MAX(B26,E26,H26)</f>
+        <v>16.099842308845837</v>
+      </c>
+      <c r="C29" s="6">
+        <f>MAX(C26,F26,I26)</f>
+        <v>7.5330532033764452</v>
+      </c>
+      <c r="D29" s="6">
+        <f>MAX(D26,G26,J26)</f>
+        <v>5.4400704441410657</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="12">
+        <v>5.82</v>
+      </c>
+      <c r="N29" s="12">
+        <v>3.4266141029486121</v>
+      </c>
+      <c r="O29" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="P29" s="12">
+        <v>1.10672584918902</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="R29" s="12">
+        <v>1.1385124181649446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="M31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="E32" s="6"/>
+      <c r="L32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="12">
+        <f>M27</f>
+        <v>4.25</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" ref="N32:P32" si="3">N27</f>
+        <v>2.5037866060071998</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="3"/>
+        <v>1.4749999999999999</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2268380410418354</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" ref="Q32:R34" si="4">Q27*0.01745329251</f>
+        <v>2.7314402778150001E-2</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="4"/>
+        <v>1.8386222813483479E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18">
+      <c r="L33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" ref="M33:P33" si="5">M28</f>
+        <v>3.9249999999999994</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="5"/>
+        <v>2.6183311277867145</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="5"/>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="5"/>
+        <v>1.6560177344588152</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9583330804449998E-2</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="4"/>
+        <v>2.1787936644049877E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18">
+      <c r="L34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" ref="M34:P34" si="6">M29</f>
+        <v>5.82</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="6"/>
+        <v>3.4266141029486121</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="6"/>
+        <v>1.52</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="6"/>
+        <v>1.10672584918902</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="4"/>
+        <v>2.5481807064599998E-2</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="4"/>
+        <v>1.9870790260500214E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18">
+      <c r="L35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="12">
+        <f>AVERAGE(M32:M34)</f>
+        <v>4.665</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" ref="N35:R35" si="7">AVERAGE(N32:N34)</f>
+        <v>2.8495772789141753</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8533333333333335</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="7"/>
+        <v>1.3298605415632234</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="7"/>
+        <v>2.74598468824E-2</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0014983239344527E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -16692,1162 +17832,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="6">
-        <f>7-5.1</f>
-        <v>1.9000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G4" s="6">
-        <v>9.9999999999999603E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="6">
-        <f>7-5.7</f>
-        <v>1.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H5" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="J5" s="6">
-        <f>7-5.3</f>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="H6" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="6">
-        <f>8.2-7</f>
-        <v>1.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>9.9999999999999603E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="J7" s="6">
-        <f>7.1-7</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f>7-6.6</f>
-        <v>0.40000000000000036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="6">
-        <f>9.3-7</f>
-        <v>2.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="J10" s="6">
-        <f>8-7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="J11" s="6">
-        <f>7-5.8</f>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="F12" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="G12" s="6">
-        <v>9.9999999999999603E-2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="J12" s="6">
-        <f>7-6.1</f>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="H13" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="J13" s="6">
-        <f>5.1-2.2</f>
-        <v>2.8999999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="D14" s="6">
-        <v>9.9999999999999603E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="J14" s="6">
-        <f>4.2-2.2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>10.3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J15" s="6">
-        <f>5.4-2.2</f>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="J16" s="6">
-        <f>5.6-2.2</f>
-        <v>3.3999999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="J17" s="6">
-        <f>5.1-2.2</f>
-        <v>2.8999999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="H18" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="J18" s="6">
-        <f>2.2-2.1</f>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="J19" s="6">
-        <f>4.7-2.2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I20" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="J20" s="6">
-        <f>2.2-2.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="G21" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="J21" s="6">
-        <f>2.2-2.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J22" s="6">
-        <f>2.4-2.2</f>
-        <v>0.19999999999999973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6">
-        <f>AVERAGE((B3:B22))</f>
-        <v>4.25</v>
-      </c>
-      <c r="C24" s="6">
-        <f t="shared" ref="C24:J24" si="0">AVERAGE((C3:C22))</f>
-        <v>1.4749999999999999</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5650000000000002</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>3.9249999999999994</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6949999999999998</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>5.82</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.52</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6">
-        <f>STDEV(B3:B22)</f>
-        <v>2.5037866060071998</v>
-      </c>
-      <c r="C25" s="6">
-        <f>STDEV(C3:C22)</f>
-        <v>1.2268380410418354</v>
-      </c>
-      <c r="D25" s="6">
-        <f>STDEV(D3:D22)</f>
-        <v>1.053452968999915</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25:J25" si="1">STDEV(E3:E22)</f>
-        <v>2.6183311277867145</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6560177344588152</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2483568147136885</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>3.4266141029486121</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.10672584918902</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1385124181649446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6">
-        <f>B24+B25*3</f>
-        <v>11.761359818021599</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" ref="C26:J26" si="2">C24+C25*3</f>
-        <v>5.1555141231255055</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7253589069997455</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="2"/>
-        <v>11.779993383360143</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="2"/>
-        <v>7.5330532033764452</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>5.4400704441410657</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="2"/>
-        <v>16.099842308845837</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8401775475670599</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8755372544948337</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="N27" s="12">
-        <v>2.5037866060071998</v>
-      </c>
-      <c r="O27" s="12">
-        <v>1.4749999999999999</v>
-      </c>
-      <c r="P27" s="12">
-        <v>1.2268380410418354</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>1.5650000000000002</v>
-      </c>
-      <c r="R27" s="12">
-        <v>1.053452968999915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="12">
-        <v>3.9249999999999994</v>
-      </c>
-      <c r="N28" s="12">
-        <v>2.6183311277867145</v>
-      </c>
-      <c r="O28" s="12">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="P28" s="12">
-        <v>1.6560177344588152</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>1.6949999999999998</v>
-      </c>
-      <c r="R28" s="12">
-        <v>1.2483568147136885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="B29" s="6">
-        <f>MAX(B26,E26,H26)</f>
-        <v>16.099842308845837</v>
-      </c>
-      <c r="C29" s="6">
-        <f>MAX(C26,F26,I26)</f>
-        <v>7.5330532033764452</v>
-      </c>
-      <c r="D29" s="6">
-        <f>MAX(D26,G26,J26)</f>
-        <v>5.4400704441410657</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="12">
-        <v>5.82</v>
-      </c>
-      <c r="N29" s="12">
-        <v>3.4266141029486121</v>
-      </c>
-      <c r="O29" s="12">
-        <v>1.52</v>
-      </c>
-      <c r="P29" s="12">
-        <v>1.10672584918902</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>1.46</v>
-      </c>
-      <c r="R29" s="12">
-        <v>1.1385124181649446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="M31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="E32" s="6"/>
-      <c r="L32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="12">
-        <f>M27</f>
-        <v>4.25</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" ref="N32:P32" si="3">N27</f>
-        <v>2.5037866060071998</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4749999999999999</v>
-      </c>
-      <c r="P32" s="12">
-        <f t="shared" si="3"/>
-        <v>1.2268380410418354</v>
-      </c>
-      <c r="Q32" s="12">
-        <f t="shared" ref="Q32:R34" si="4">Q27*0.01745329251</f>
-        <v>2.7314402778150001E-2</v>
-      </c>
-      <c r="R32" s="12">
-        <f t="shared" si="4"/>
-        <v>1.8386222813483479E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="12:18">
-      <c r="L33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" ref="M33:P33" si="5">M28</f>
-        <v>3.9249999999999994</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" si="5"/>
-        <v>2.6183311277867145</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="5"/>
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="P33" s="12">
-        <f t="shared" si="5"/>
-        <v>1.6560177344588152</v>
-      </c>
-      <c r="Q33" s="12">
-        <f t="shared" si="4"/>
-        <v>2.9583330804449998E-2</v>
-      </c>
-      <c r="R33" s="12">
-        <f t="shared" si="4"/>
-        <v>2.1787936644049877E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="12:18">
-      <c r="L34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" ref="M34:P34" si="6">M29</f>
-        <v>5.82</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" si="6"/>
-        <v>3.4266141029486121</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="6"/>
-        <v>1.52</v>
-      </c>
-      <c r="P34" s="12">
-        <f t="shared" si="6"/>
-        <v>1.10672584918902</v>
-      </c>
-      <c r="Q34" s="12">
-        <f t="shared" si="4"/>
-        <v>2.5481807064599998E-2</v>
-      </c>
-      <c r="R34" s="12">
-        <f t="shared" si="4"/>
-        <v>1.9870790260500214E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="12:18">
-      <c r="L35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="12">
-        <f>AVERAGE(M32:M34)</f>
-        <v>4.665</v>
-      </c>
-      <c r="N35" s="12">
-        <f t="shared" ref="N35:R35" si="7">AVERAGE(N32:N34)</f>
-        <v>2.8495772789141753</v>
-      </c>
-      <c r="O35" s="12">
-        <f t="shared" si="7"/>
-        <v>1.8533333333333335</v>
-      </c>
-      <c r="P35" s="12">
-        <f t="shared" si="7"/>
-        <v>1.3298605415632234</v>
-      </c>
-      <c r="Q35" s="12">
-        <f t="shared" si="7"/>
-        <v>2.74598468824E-2</v>
-      </c>
-      <c r="R35" s="12">
-        <f t="shared" si="7"/>
-        <v>2.0014983239344527E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:R39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -18916,7 +18915,7 @@
       </c>
     </row>
     <row r="39" spans="12:18">
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="18" t="s">
         <v>7</v>
       </c>
       <c r="M39" s="12">
@@ -18958,7 +18957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -19181,8 +19180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView topLeftCell="V10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AK10"/>
+    <sheetView topLeftCell="V1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -19454,43 +19453,43 @@
         <v>4</v>
       </c>
       <c r="X7" s="12">
-        <v>37.186069959183662</v>
+        <v>24.355517121775517</v>
       </c>
       <c r="Y7" s="12">
-        <v>14.850241997686163</v>
+        <v>17.472085512364</v>
       </c>
       <c r="Z7" s="12">
-        <v>183.2115121224478</v>
+        <v>138.65597546530731</v>
       </c>
       <c r="AA7" s="12">
-        <v>7.296972233069174</v>
+        <v>6.772731672518213</v>
       </c>
       <c r="AB7" s="12">
-        <v>115.84973551020366</v>
+        <v>42.796422130611809</v>
       </c>
       <c r="AC7" s="12">
-        <v>16.265329219752218</v>
+        <v>16.371628170412606</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AF7" s="12">
-        <v>37.186069959183662</v>
+        <v>24.355517121775517</v>
       </c>
       <c r="AG7" s="12">
-        <v>14.850241997686163</v>
+        <v>17.472085512364</v>
       </c>
       <c r="AH7" s="12">
-        <v>183.2115121224478</v>
+        <v>138.65597546530731</v>
       </c>
       <c r="AI7" s="12">
-        <v>7.296972233069174</v>
+        <v>6.772731672518213</v>
       </c>
       <c r="AJ7" s="12">
-        <v>115.84973551020366</v>
+        <v>42.796422130611809</v>
       </c>
       <c r="AK7" s="12">
-        <v>16.265329219752218</v>
+        <v>16.371628170412606</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -19519,43 +19518,43 @@
         <v>5</v>
       </c>
       <c r="X8" s="12">
-        <v>24.355517121775517</v>
+        <v>37.186069959183662</v>
       </c>
       <c r="Y8" s="12">
-        <v>17.472085512364</v>
+        <v>14.850241997686163</v>
       </c>
       <c r="Z8" s="12">
-        <v>138.65597546530731</v>
+        <v>183.2115121224478</v>
       </c>
       <c r="AA8" s="12">
-        <v>6.772731672518213</v>
+        <v>7.296972233069174</v>
       </c>
       <c r="AB8" s="12">
-        <v>42.796422130611809</v>
+        <v>115.84973551020366</v>
       </c>
       <c r="AC8" s="12">
-        <v>16.371628170412606</v>
+        <v>16.265329219752218</v>
       </c>
       <c r="AE8" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="AF8" s="12">
-        <v>24.355517121775517</v>
+        <v>37.186069959183662</v>
       </c>
       <c r="AG8" s="12">
-        <v>17.472085512364</v>
+        <v>14.850241997686163</v>
       </c>
       <c r="AH8" s="12">
-        <v>138.65597546530731</v>
+        <v>183.2115121224478</v>
       </c>
       <c r="AI8" s="12">
-        <v>6.772731672518213</v>
+        <v>7.296972233069174</v>
       </c>
       <c r="AJ8" s="12">
-        <v>42.796422130611809</v>
+        <v>115.84973551020366</v>
       </c>
       <c r="AK8" s="12">
-        <v>16.371628170412606</v>
+        <v>16.265329219752218</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -19629,15 +19628,15 @@
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="0"/>
-        <v>126.36954109659943</v>
+        <v>126.36954109659945</v>
       </c>
       <c r="AI10" s="12">
         <f t="shared" si="0"/>
-        <v>8.0733355559358806</v>
+        <v>8.0733355559358824</v>
       </c>
       <c r="AJ10" s="12">
         <f t="shared" si="0"/>
-        <v>117.6091874897955</v>
+        <v>117.60918748979549</v>
       </c>
       <c r="AK10" s="12">
         <f t="shared" si="0"/>
@@ -19645,30 +19644,30 @@
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:37">
       <c r="D12" s="10" t="s">
@@ -20199,30 +20198,30 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19" t="s">
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
     </row>
     <row r="28" spans="1:21">
       <c r="D28" s="10" t="s">
@@ -21131,8 +21130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X247"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="J249" sqref="J249"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34940,8 +34939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AC8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -35160,30 +35159,30 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:29">
       <c r="D12" s="10" t="s">
@@ -35815,7 +35814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L248"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L249" sqref="L249"/>
     </sheetView>
   </sheetViews>
@@ -42984,7 +42983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="X32" sqref="X32:AD37"/>
     </sheetView>
   </sheetViews>

--- a/tables/final_compiled_test_results_and_figs.xlsx
+++ b/tables/final_compiled_test_results_and_figs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMobley7\Documents\scriptorium\papers\my_papers\masters_thesis\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8145" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9375" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch_Nav" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Feature Detection" sheetId="5" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -561,18 +561,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1063,10 +1070,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1087,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,31 +1106,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1135,280 +1136,220 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,76 +1358,142 @@
     <xf numFmtId="10" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,7 +1522,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1609,6 +1616,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1685,6 +1697,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1780,6 +1797,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1875,6 +1897,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1970,6 +1997,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2067,6 +2099,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2164,6 +2201,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2261,6 +2303,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F1A0-49C0-83E0-9FF269A71F37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2270,11 +2317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1079083600"/>
-        <c:axId val="1079081968"/>
+        <c:axId val="-511699792"/>
+        <c:axId val="-511688368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1079083600"/>
+        <c:axId val="-511699792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -2412,12 +2459,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079081968"/>
+        <c:crossAx val="-511688368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1079081968"/>
+        <c:axId val="-511688368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -2458,7 +2505,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
@@ -2474,16 +2521,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1">
-                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" sz="1800" b="1">
                     <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Error (cm)</a:t>
+                  <a:t> Error (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2502,7 +2543,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
@@ -2561,7 +2602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079083600"/>
+        <c:crossAx val="-511699792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2669,7 +2710,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2763,6 +2804,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2839,6 +2885,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2931,6 +2982,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3023,6 +3079,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3115,6 +3176,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3207,6 +3273,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3299,6 +3370,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3391,6 +3467,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-422A-4AAA-8494-8588F3E99C34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3400,11 +3481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1079092848"/>
-        <c:axId val="1079079248"/>
+        <c:axId val="-511697616"/>
+        <c:axId val="-511687824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1079092848"/>
+        <c:axId val="-511697616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -3539,12 +3620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079079248"/>
+        <c:crossAx val="-511687824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1079079248"/>
+        <c:axId val="-511687824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -3673,7 +3754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079092848"/>
+        <c:crossAx val="-511697616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3774,7 +3855,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3868,6 +3949,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40D6-4824-AB3F-539BF7825599}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3960,6 +4046,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40D6-4824-AB3F-539BF7825599}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4052,6 +4143,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40D6-4824-AB3F-539BF7825599}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4144,6 +4240,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40D6-4824-AB3F-539BF7825599}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4153,11 +4254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1079086320"/>
-        <c:axId val="1077548272"/>
+        <c:axId val="-511686192"/>
+        <c:axId val="-511694896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1079086320"/>
+        <c:axId val="-511686192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -4292,12 +4393,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077548272"/>
+        <c:crossAx val="-511694896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1077548272"/>
+        <c:axId val="-511694896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -4426,7 +4527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079086320"/>
+        <c:crossAx val="-511686192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4515,7 +4616,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4609,6 +4710,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F162-42AE-A5DC-357BD1B5C667}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4701,6 +4807,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F162-42AE-A5DC-357BD1B5C667}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4793,6 +4904,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F162-42AE-A5DC-357BD1B5C667}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4885,6 +5001,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F162-42AE-A5DC-357BD1B5C667}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4894,11 +5015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219933664"/>
-        <c:axId val="1219925504"/>
+        <c:axId val="-709876608"/>
+        <c:axId val="-709880960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219933664"/>
+        <c:axId val="-709876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -5027,12 +5148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219925504"/>
+        <c:crossAx val="-709880960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219925504"/>
+        <c:axId val="-709880960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0000000000000012E-2"/>
@@ -5161,7 +5282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219933664"/>
+        <c:crossAx val="-709876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5250,7 +5371,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5360,6 +5481,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5452,6 +5578,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5544,6 +5675,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5553,8 +5689,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219924416"/>
-        <c:axId val="1219932032"/>
+        <c:axId val="-478727216"/>
+        <c:axId val="-478734288"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5653,6 +5789,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5748,6 +5889,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5843,6 +5989,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5938,6 +6089,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6033,6 +6189,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6128,6 +6289,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -6223,6 +6389,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -6318,6 +6489,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -6413,6 +6589,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -6508,6 +6689,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -6603,6 +6789,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -6698,6 +6889,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -6793,6 +6989,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -6888,6 +7089,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -6983,6 +7189,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -7078,6 +7289,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
@@ -7173,6 +7389,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="20"/>
@@ -7268,6 +7489,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-719E-44A7-BF5A-2EFCBA8EF5E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7277,11 +7503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219924416"/>
-        <c:axId val="1219932032"/>
+        <c:axId val="-478727216"/>
+        <c:axId val="-478734288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219924416"/>
+        <c:axId val="-478727216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -7343,7 +7569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7395,7 +7620,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7410,12 +7635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219932032"/>
+        <c:crossAx val="-478734288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219932032"/>
+        <c:axId val="-478734288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -7485,7 +7710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7552,7 +7776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219924416"/>
+        <c:crossAx val="-478727216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7638,7 +7862,6 @@
         <c:idx val="20"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7701,7 +7924,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7793,6 +8016,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7867,6 +8095,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7941,6 +8174,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7950,8 +8188,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219926592"/>
-        <c:axId val="1219926048"/>
+        <c:axId val="-478731024"/>
+        <c:axId val="-478737552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8050,6 +8288,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8145,6 +8388,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8240,6 +8488,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -8335,6 +8588,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -8430,6 +8688,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -8525,6 +8788,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -8620,6 +8888,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -8715,6 +8988,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -8810,6 +9088,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3E3E-4FA5-849E-A7F020E97EF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8819,11 +9102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219926592"/>
-        <c:axId val="1219926048"/>
+        <c:axId val="-478731024"/>
+        <c:axId val="-478737552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219926592"/>
+        <c:axId val="-478731024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8885,7 +9168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8952,12 +9234,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219926048"/>
+        <c:crossAx val="-478737552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219926048"/>
+        <c:axId val="-478737552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
@@ -9028,7 +9310,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9095,7 +9376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219926592"/>
+        <c:crossAx val="-478731024"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9146,7 +9427,6 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9209,7 +9489,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9309,6 +9589,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9391,6 +9676,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9473,6 +9763,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9568,6 +9863,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9663,6 +9963,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9758,6 +10063,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -9853,6 +10163,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -9948,6 +10263,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -10043,6 +10363,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -10138,6 +10463,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -10233,6 +10563,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -10328,6 +10663,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -10423,6 +10763,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -10518,6 +10863,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -10613,6 +10963,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-6DA6-4D55-8ACA-CAE879D19791}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10622,11 +10977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219921152"/>
-        <c:axId val="1219927136"/>
+        <c:axId val="-478735920"/>
+        <c:axId val="-478740816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219921152"/>
+        <c:axId val="-478735920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -10755,12 +11110,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219927136"/>
+        <c:crossAx val="-478740816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219927136"/>
+        <c:axId val="-478740816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -10898,7 +11253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219921152"/>
+        <c:crossAx val="-478735920"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11023,7 +11378,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11123,6 +11478,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11205,6 +11565,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11287,6 +11652,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11382,6 +11752,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -11477,6 +11852,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -11572,6 +11952,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -11667,6 +12052,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -11762,6 +12152,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -11857,6 +12252,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -11952,6 +12352,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -12047,6 +12452,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -12142,6 +12552,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="16"/>
@@ -12237,6 +12652,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
@@ -12332,6 +12752,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="18"/>
@@ -12427,6 +12852,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2F07-4E00-90E3-6B85CD9D7995}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12436,11 +12866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219921696"/>
-        <c:axId val="1219922240"/>
+        <c:axId val="-478733744"/>
+        <c:axId val="-478730480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219921696"/>
+        <c:axId val="-478733744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -12569,12 +12999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219922240"/>
+        <c:crossAx val="-478730480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219922240"/>
+        <c:axId val="-478730480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -12712,7 +13142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219921696"/>
+        <c:crossAx val="-478733744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17420,13 +17850,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>122705</xdr:colOff>
+      <xdr:colOff>136152</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>124663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>124199</xdr:colOff>
+      <xdr:colOff>137646</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>10363</xdr:rowOff>
     </xdr:to>
@@ -17838,32 +18268,32 @@
     <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="28"/>
-    <col min="21" max="21" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="26"/>
+    <col min="21" max="21" width="6.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" t="s">
@@ -18028,15 +18458,15 @@
         <f>8.2-7</f>
         <v>1.1999999999999993</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="24"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="22"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" thickBot="1">
       <c r="A7">
@@ -18070,27 +18500,27 @@
         <f>7.1-7</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="31" t="s">
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" s="33" t="s">
+      <c r="AA7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AB7" s="24"/>
+      <c r="AB7" s="22"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8">
@@ -18124,29 +18554,29 @@
         <f>7-6.6</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="34" t="s">
+      <c r="T8" s="27"/>
+      <c r="U8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="33">
         <v>4.25</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="34">
         <v>2.5037866060071998</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="33">
         <v>1.4749999999999999</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="34">
         <v>1.2268380410418354</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="33">
         <v>2.7314402778150001E-2</v>
       </c>
-      <c r="AA8" s="37">
+      <c r="AA8" s="35">
         <v>1.8386222813483479E-2</v>
       </c>
-      <c r="AB8" s="24"/>
+      <c r="AB8" s="22"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9">
@@ -18180,29 +18610,29 @@
         <f>9.3-7</f>
         <v>2.3000000000000007</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="38" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="37">
         <v>3.9249999999999994</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="38">
         <v>2.6183311277867145</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="37">
         <v>2.5649999999999999</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="38">
         <v>1.6560177344588152</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="37">
         <v>2.9583330804449998E-2</v>
       </c>
-      <c r="AA9" s="41">
+      <c r="AA9" s="39">
         <v>2.1787936644049877E-2</v>
       </c>
-      <c r="AB9" s="24"/>
+      <c r="AB9" s="22"/>
     </row>
     <row r="10" spans="1:28" ht="16.5" thickBot="1">
       <c r="A10">
@@ -18236,29 +18666,29 @@
         <f>8-7</f>
         <v>1</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="42" t="s">
+      <c r="T10" s="27"/>
+      <c r="U10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="41">
         <v>5.82</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="42">
         <v>3.4266141029486121</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="41">
         <v>1.52</v>
       </c>
-      <c r="Y10" s="44">
+      <c r="Y10" s="42">
         <v>1.10672584918902</v>
       </c>
-      <c r="Z10" s="43">
+      <c r="Z10" s="41">
         <v>2.5481807064599998E-2</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="43">
         <v>1.9870790260500214E-2</v>
       </c>
-      <c r="AB10" s="24"/>
+      <c r="AB10" s="22"/>
     </row>
     <row r="11" spans="1:28" ht="16.5" thickBot="1">
       <c r="A11">
@@ -18292,29 +18722,29 @@
         <f>7-5.8</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="31" t="s">
+      <c r="T11" s="27"/>
+      <c r="U11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11" s="44">
         <v>4.665</v>
       </c>
-      <c r="W11" s="47">
+      <c r="W11" s="45">
         <v>2.8495772789141753</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11" s="44">
         <v>1.8533333333333335</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="Y11" s="45">
         <v>1.3298605415632234</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="44">
         <v>2.74598468824E-2</v>
       </c>
-      <c r="AA11" s="48">
+      <c r="AA11" s="46">
         <v>2.0014983239344527E-2</v>
       </c>
-      <c r="AB11" s="24"/>
+      <c r="AB11" s="22"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12">
@@ -18348,15 +18778,15 @@
         <f>7-6.1</f>
         <v>0.90000000000000036</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="24"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="22"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13">
@@ -18955,10 +19385,10 @@
       <c r="P31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="21" t="s">
+      <c r="Q31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -19106,7 +19536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="Q10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -20403,371 +20833,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="48.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="28"/>
-    <col min="12" max="12" width="47.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="28"/>
+    <col min="1" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="48.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="12" max="12" width="47.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="76" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="63" t="s">
+      <c r="Q3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="77" t="s">
+      <c r="R3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="29"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="29"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>1.4379256874499888</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <v>1.2452117860740748</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="65">
         <v>0.7004587177831999</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="64">
         <v>0.42779289942026016</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="65">
         <v>0.8226217746508</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="64">
         <v>0.55528034791219627</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="65" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="64">
         <v>2.3394612909499926</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="65">
         <v>1.2905525335294337</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="64">
         <v>1.4623187491849496</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="65">
         <v>0.20569798692045349</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="64">
         <v>1.1723496824234998</v>
       </c>
-      <c r="R4" s="80">
+      <c r="R4" s="78">
         <v>0.71061691307878794</v>
       </c>
-      <c r="S4" s="29"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="29"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>1.8904397705199898</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="67">
         <v>1.5553417988587652</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>0.6610034153655</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="67">
         <v>0.38951274739045838</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="68">
         <v>1.8863402021275</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="67">
         <v>0.4624551752617776</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="68" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="67">
         <v>1.6025620354100241</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="68">
         <v>2.2193070676137543</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="67">
         <v>1.2712261936695</v>
       </c>
-      <c r="P5" s="70">
+      <c r="P5" s="68">
         <v>0.21773132733639453</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="67">
         <v>1.4809864287569001</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="81">
         <v>0.9130975157014134</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="29"/>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>2.1545246432799927</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="67">
         <v>1.8262796506149472</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <v>0.53135775189925016</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="67">
         <v>0.3041001456456614</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="68">
         <v>4.0568488973765007</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="67">
         <v>0.69631842561330615</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="68" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="67">
         <v>4.3849408243599983</v>
       </c>
-      <c r="N6" s="70">
+      <c r="N6" s="68">
         <v>2.4603622093955124</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="67">
         <v>0.77643865897499953</v>
       </c>
-      <c r="P6" s="70">
+      <c r="P6" s="68">
         <v>0.34194728385708173</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="67">
         <v>3.8070138477485003</v>
       </c>
-      <c r="R6" s="83">
+      <c r="R6" s="81">
         <v>0.32312334800954079</v>
       </c>
-      <c r="S6" s="29"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="29"/>
-      <c r="C7" s="81" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>2.7089384818500095</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="67">
         <v>2.7089384818500095</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="68">
         <v>0.30866924089999948</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="67">
         <v>0.21153583906201062</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="68">
         <v>10.254127724689999</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="67">
         <v>1.3841407208010446</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="68" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="67">
         <v>3.3181921509000007</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="68">
         <v>1.9487186388892102</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="67">
         <v>0.79282525708999929</v>
       </c>
-      <c r="P7" s="70">
+      <c r="P7" s="68">
         <v>0.59831355441738954</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="67">
         <v>8.2129777165049997</v>
       </c>
-      <c r="R7" s="83">
+      <c r="R7" s="81">
         <v>0.40020607912455636</v>
       </c>
-      <c r="S7" s="29"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="83">
         <v>2.047957145774995</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="84">
         <v>1.8339429293494491</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="85">
         <v>0.55037228148698747</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="84">
         <v>0.3332354078795976</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="85">
         <v>4.2549846497111998</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="84">
         <v>0.77454866739708117</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="88" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="84">
         <f>AVERAGE(M4:M7)</f>
         <v>2.911289075405004</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="85">
         <f t="shared" ref="N8:R8" si="0">AVERAGE(N4:N7)</f>
         <v>1.9797351123569777</v>
       </c>
-      <c r="O8" s="86">
+      <c r="O8" s="84">
         <f t="shared" si="0"/>
         <v>1.0757022147298623</v>
       </c>
-      <c r="P8" s="87">
+      <c r="P8" s="85">
         <f t="shared" si="0"/>
         <v>0.3409225381328298</v>
       </c>
-      <c r="Q8" s="86">
+      <c r="Q8" s="84">
         <f t="shared" si="0"/>
         <v>3.6683319188584749</v>
       </c>
-      <c r="R8" s="89">
+      <c r="R8" s="87">
         <f t="shared" si="0"/>
         <v>0.58676096397857458</v>
       </c>
-      <c r="S8" s="29"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20784,606 +21214,606 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="40.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" thickBot="1">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="24"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="2:11" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="2:11" ht="32.25" thickBot="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="27"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="91">
         <v>6</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="92">
         <v>0.75539999999999996</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="92">
         <v>0.97130000000000005</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="92">
         <v>0.99970000000000003</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="27"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="95">
         <v>7</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="96">
         <v>0.7571</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="96">
         <v>0.93130000000000002</v>
       </c>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="96">
         <v>0.99180000000000001</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="27"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="95">
         <v>7</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="96">
         <v>0.61070000000000002</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="96">
         <v>0.8952</v>
       </c>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="110">
+      <c r="I8" s="96">
         <v>0.99170000000000003</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="27"/>
-      <c r="C9" s="108" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="95">
         <v>6</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="96">
         <v>0.2792</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="96">
         <v>0.98129999999999995</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="96">
         <v>0.99780000000000002</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="27"/>
-      <c r="C10" s="108" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="95">
         <v>5</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="96">
         <v>0.2107</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="96">
         <v>0.88339999999999996</v>
       </c>
-      <c r="H10" s="111" t="s">
+      <c r="H10" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="96">
         <v>0.99160000000000004</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:11" ht="21">
-      <c r="B11" s="27"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="103">
         <v>7</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="104">
         <v>0.92490000000000006</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="104">
         <v>0.93820000000000003</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="104">
         <v>0.99960000000000004</v>
       </c>
-      <c r="J11" s="116" t="s">
+      <c r="J11" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="27"/>
-      <c r="C12" s="108" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="95">
         <v>6</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="96">
         <v>0.26229999999999998</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="96">
         <v>0.97660000000000002</v>
       </c>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="96">
         <v>0.99509999999999998</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="27"/>
-      <c r="C13" s="108" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="95">
         <v>7</v>
       </c>
-      <c r="E13" s="110">
+      <c r="E13" s="96">
         <v>0.37709999999999999</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="96">
         <v>0.94020000000000004</v>
       </c>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="110">
+      <c r="I13" s="96">
         <v>0.99629999999999996</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="27"/>
-      <c r="C14" s="108" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="95">
         <v>7</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="96">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="96">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H14" s="111" t="s">
+      <c r="H14" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="96">
         <v>0.99950000000000006</v>
       </c>
-      <c r="J14" s="111" t="s">
+      <c r="J14" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="24"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="27"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="95">
         <v>7</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="96">
         <v>0.83140000000000003</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="96">
         <v>0.86960000000000004</v>
       </c>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="96">
         <v>0.99839999999999995</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="27"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="95">
         <v>7</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="96">
         <v>0.61270000000000002</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="96">
         <v>0.87570000000000003</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="96">
         <v>0.99309999999999998</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="27"/>
-      <c r="C17" s="108" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="95">
         <v>15</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="96">
         <v>0.97989999999999999</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="96">
         <v>0.98</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="110">
+      <c r="I17" s="96">
         <v>0.99860000000000004</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="24"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="27"/>
-      <c r="C18" s="108" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="95">
         <v>7</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="96">
         <v>0.86280000000000001</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="96">
         <v>0.94259999999999999</v>
       </c>
-      <c r="H18" s="111" t="s">
+      <c r="H18" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="96">
         <v>0.99250000000000005</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="24"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="27"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="95">
         <v>7</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="96">
         <v>0.61739999999999995</v>
       </c>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="96">
         <v>0.99870000000000003</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="96">
         <v>0.99929999999999997</v>
       </c>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="24"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="27"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="95">
         <v>7</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="96">
         <v>0.79110000000000003</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="96">
         <v>0.95120000000000005</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="110">
+      <c r="I20" s="96">
         <v>0.998</v>
       </c>
-      <c r="J20" s="111" t="s">
+      <c r="J20" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="27"/>
-      <c r="C21" s="108" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="95">
         <v>6</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="96">
         <v>0.36159999999999998</v>
       </c>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="96">
         <v>0.88049999999999995</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="110">
+      <c r="I21" s="96">
         <v>0.99470000000000003</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="21">
-      <c r="B22" s="27"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="103">
         <v>6</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22" s="104">
         <v>0.35880000000000001</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="104">
         <v>0.88690000000000002</v>
       </c>
-      <c r="H22" s="116" t="s">
+      <c r="H22" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="104">
         <v>0.99550000000000005</v>
       </c>
-      <c r="J22" s="116" t="s">
+      <c r="J22" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="24"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" thickBot="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="112" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="99">
         <v>7</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="100">
         <v>0.45179999999999998</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="114">
+      <c r="G23" s="100">
         <v>0.90049999999999997</v>
       </c>
-      <c r="H23" s="115" t="s">
+      <c r="H23" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I23" s="100">
         <v>0.99629999999999996</v>
       </c>
-      <c r="J23" s="115" t="s">
+      <c r="J23" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="24"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21437,21 +21867,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
@@ -21764,15 +22194,15 @@
         <f>5.2-3.2</f>
         <v>2</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
     </row>
     <row r="11" spans="1:28" ht="16.5" thickBot="1">
       <c r="A11" s="1">
@@ -21808,27 +22238,27 @@
         <f>5.5-3.2</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="49" t="s">
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="X11" s="32" t="s">
+      <c r="X11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AB11" s="29"/>
+      <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="1:28" ht="15.75">
       <c r="A12" s="1">
@@ -21864,29 +22294,29 @@
         <f>4.2-3.2</f>
         <v>1</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="34" t="s">
+      <c r="T12" s="27"/>
+      <c r="U12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="48">
         <v>6.2899999999999991</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="33">
         <v>4.201992008810258</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="34">
         <v>4.4950000000000001</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Y12" s="33">
         <v>3.5779257442796295</v>
       </c>
-      <c r="Z12" s="36">
+      <c r="Z12" s="34">
         <v>2.8448866791300001E-2</v>
       </c>
-      <c r="AA12" s="35">
+      <c r="AA12" s="33">
         <v>2.2580199958345971E-2</v>
       </c>
-      <c r="AB12" s="29"/>
+      <c r="AB12" s="27"/>
     </row>
     <row r="13" spans="1:28" ht="15.75">
       <c r="A13" s="1">
@@ -21921,29 +22351,29 @@
         <f>5.3-3.6</f>
         <v>1.6999999999999997</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="38" t="s">
+      <c r="T13" s="27"/>
+      <c r="U13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="51">
+      <c r="V13" s="49">
         <v>4.1599999999999993</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="37">
         <v>3.1640081176288177</v>
       </c>
-      <c r="X13" s="40">
+      <c r="X13" s="38">
         <v>2.875</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="37">
         <v>2.9723063878338469</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="Z13" s="38">
         <v>2.8797932641499997E-2</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="37">
         <v>2.8653518245907981E-2</v>
       </c>
-      <c r="AB13" s="29"/>
+      <c r="AB13" s="27"/>
     </row>
     <row r="14" spans="1:28" ht="15.75">
       <c r="A14" s="1">
@@ -21978,29 +22408,29 @@
         <f>4.8-3.6</f>
         <v>1.1999999999999997</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="38" t="s">
+      <c r="T14" s="27"/>
+      <c r="U14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="V14" s="51">
+      <c r="V14" s="49">
         <v>6.3500000000000005</v>
       </c>
-      <c r="W14" s="39">
+      <c r="W14" s="37">
         <v>4.5486261662176624</v>
       </c>
-      <c r="X14" s="40">
+      <c r="X14" s="38">
         <v>2.3650000000000002</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="37">
         <v>1.8904956186700155</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="Z14" s="38">
         <v>2.2689280262999999E-2</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="37">
         <v>1.1604868132979061E-2</v>
       </c>
-      <c r="AB14" s="29"/>
+      <c r="AB14" s="27"/>
     </row>
     <row r="15" spans="1:28" ht="16.5" thickBot="1">
       <c r="A15" s="1">
@@ -22035,29 +22465,29 @@
         <f>3.9-3.6</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="52" t="s">
+      <c r="T15" s="27"/>
+      <c r="U15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="53">
+      <c r="V15" s="51">
         <v>5.6000000000000005</v>
       </c>
-      <c r="W15" s="54">
+      <c r="W15" s="52">
         <v>3.9715420975522462</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15" s="53">
         <v>3.2449999999999997</v>
       </c>
-      <c r="Y15" s="54">
+      <c r="Y15" s="52">
         <v>2.8135759169278312</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="Z15" s="53">
         <v>2.6645359898599997E-2</v>
       </c>
-      <c r="AA15" s="54">
+      <c r="AA15" s="52">
         <v>2.0946195445744335E-2</v>
       </c>
-      <c r="AB15" s="29"/>
+      <c r="AB15" s="27"/>
     </row>
     <row r="16" spans="1:28" ht="15.75">
       <c r="A16" s="1">
@@ -22092,15 +22522,15 @@
         <f>3.6-2.8</f>
         <v>0.80000000000000027</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
@@ -22606,10 +23036,10 @@
       <c r="P35" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="21" t="s">
+      <c r="Q35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="21" t="s">
+      <c r="R35" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -22744,7 +23174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -22976,416 +23406,416 @@
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.5703125" customWidth="1"/>
     <col min="10" max="12" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="24"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="90" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="120" t="s">
+      <c r="K2" s="130"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="24"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="22"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="123" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="123" t="s">
+      <c r="M3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="123" t="s">
+      <c r="Q3" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="123" t="s">
+      <c r="R3" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="123" t="s">
+      <c r="S3" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="T3" s="123" t="s">
+      <c r="T3" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="90" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="24"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="22"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="109">
         <v>1</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="109">
         <v>0</v>
       </c>
-      <c r="E4" s="127">
+      <c r="E4" s="110">
         <v>0</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="65" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="64">
         <v>1</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="65">
         <v>0</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="64">
         <v>0</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="138">
+      <c r="M4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="121">
         <v>1.1972</v>
       </c>
-      <c r="Q4" s="138">
+      <c r="Q4" s="121">
         <v>2.1716000000000002</v>
       </c>
-      <c r="R4" s="138">
+      <c r="R4" s="121">
         <v>1.0318000000000001</v>
       </c>
-      <c r="S4" s="138">
+      <c r="S4" s="121">
         <v>14.75333</v>
       </c>
-      <c r="T4" s="138">
+      <c r="T4" s="121">
         <v>3.0264000000000002</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="63" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="63" t="s">
+      <c r="Y4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="77" t="s">
+      <c r="Z4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="24"/>
+      <c r="AA4" s="22"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="24"/>
-      <c r="B5" s="128" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="112">
         <v>1.2</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="112">
         <f>-1 *0.15</f>
         <v>-0.15</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="113">
         <f>-1*0.11</f>
         <v>-0.11</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="68" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <v>0.75</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="68">
         <v>0</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="81">
+      <c r="M5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="79">
         <v>0.50939999999999996</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="79">
         <v>0.69450000000000001</v>
       </c>
-      <c r="R5" s="81">
+      <c r="R5" s="79">
         <v>0.37419999999999998</v>
       </c>
-      <c r="S5" s="81">
+      <c r="S5" s="79">
         <v>7.9462999999999999</v>
       </c>
-      <c r="T5" s="81">
+      <c r="T5" s="79">
         <v>0.81810000000000005</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="65" t="s">
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="141" t="s">
+      <c r="X5" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="Y5" s="141" t="s">
+      <c r="Y5" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="Z5" s="142" t="s">
+      <c r="Z5" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="AA5" s="24"/>
+      <c r="AA5" s="22"/>
     </row>
     <row r="6" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="114">
         <v>1.2</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="114">
         <v>0.15</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="115">
         <f>0.11</f>
         <v>0.11</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="68" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="67">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="68">
         <v>0.12</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="67">
         <v>-0.09</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="139">
+      <c r="M6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="122">
         <v>1.0656000000000001</v>
       </c>
-      <c r="Q6" s="139">
+      <c r="Q6" s="122">
         <v>1.6354</v>
       </c>
-      <c r="R6" s="139">
+      <c r="R6" s="122">
         <v>0.90800000000000003</v>
       </c>
-      <c r="S6" s="139">
+      <c r="S6" s="122">
         <v>7.5823999999999998</v>
       </c>
-      <c r="T6" s="139">
+      <c r="T6" s="122">
         <v>2.5236000000000001</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="68" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="66" t="s">
+      <c r="X6" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="Y6" s="69" t="s">
+      <c r="Y6" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="Z6" s="83" t="s">
+      <c r="Z6" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="68" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="135">
+      <c r="J7" s="118">
         <v>0.91</v>
       </c>
-      <c r="K7" s="136">
+      <c r="K7" s="119">
         <v>0.12</v>
       </c>
-      <c r="L7" s="135">
+      <c r="L7" s="118">
         <v>-0.09</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="68" t="s">
+      <c r="M7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="66" t="s">
+      <c r="X7" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="Z7" s="83" t="s">
+      <c r="Z7" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="AA7" s="24"/>
+      <c r="AA7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" thickBot="1">
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="68" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="67">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="68">
         <v>-0.12</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="67">
         <v>0.09</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="88" t="s">
+      <c r="M8" s="21"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="X8" s="140" t="s">
+      <c r="X8" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="Y8" s="133" t="s">
+      <c r="Y8" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="Z8" s="134" t="s">
+      <c r="Z8" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="AA8" s="24"/>
+      <c r="AA8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" thickBot="1">
-      <c r="H9" s="24"/>
-      <c r="I9" s="88" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="133">
+      <c r="J9" s="116">
         <v>0.91</v>
       </c>
-      <c r="K9" s="137">
+      <c r="K9" s="120">
         <v>-0.12</v>
       </c>
-      <c r="L9" s="133">
+      <c r="L9" s="116">
         <v>0.09</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="24"/>
+      <c r="M9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="22"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -23402,8 +23832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT53"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AT11"/>
+    <sheetView topLeftCell="T10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -23455,15 +23885,15 @@
       <c r="C2" s="2">
         <v>5.4400704441410603</v>
       </c>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
     </row>
     <row r="3" spans="1:46" ht="16.5" thickBot="1">
       <c r="X3" t="s">
@@ -23502,27 +23932,27 @@
       <c r="AK3" t="s">
         <v>50</v>
       </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31" t="s">
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="32" t="s">
+      <c r="AO3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="31" t="s">
+      <c r="AP3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" s="32" t="s">
+      <c r="AQ3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="31" t="s">
+      <c r="AR3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AS3" s="33" t="s">
+      <c r="AS3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AT3" s="29"/>
+      <c r="AT3" s="27"/>
     </row>
     <row r="4" spans="1:46" ht="15.75">
       <c r="W4">
@@ -23567,29 +23997,29 @@
       <c r="AK4" s="12">
         <v>12.613304472821564</v>
       </c>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="56" t="s">
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="AN4" s="57">
+      <c r="AN4" s="55">
         <v>50.411645755102043</v>
       </c>
-      <c r="AO4" s="58">
+      <c r="AO4" s="56">
         <v>22.812616890718406</v>
       </c>
-      <c r="AP4" s="57">
+      <c r="AP4" s="55">
         <v>148.87388379591954</v>
       </c>
-      <c r="AQ4" s="58">
+      <c r="AQ4" s="56">
         <v>12.329816685869007</v>
       </c>
-      <c r="AR4" s="57">
+      <c r="AR4" s="55">
         <v>150.96087085714242</v>
       </c>
-      <c r="AS4" s="59">
+      <c r="AS4" s="57">
         <v>12.613304472821564</v>
       </c>
-      <c r="AT4" s="29"/>
+      <c r="AT4" s="27"/>
     </row>
     <row r="5" spans="1:46" ht="15.75">
       <c r="E5" s="1" t="s">
@@ -23643,29 +24073,29 @@
       <c r="AK5" s="12">
         <v>12.807851760857263</v>
       </c>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="60" t="s">
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="39">
+      <c r="AN5" s="37">
         <v>23.71209908612245</v>
       </c>
-      <c r="AO5" s="40">
+      <c r="AO5" s="38">
         <v>16.059335823724702</v>
       </c>
-      <c r="AP5" s="39">
+      <c r="AP5" s="37">
         <v>151.81541017551143</v>
       </c>
-      <c r="AQ5" s="40">
+      <c r="AQ5" s="38">
         <v>6.8562847757825898</v>
       </c>
-      <c r="AR5" s="39">
+      <c r="AR5" s="37">
         <v>117.5712866857139</v>
       </c>
-      <c r="AS5" s="41">
+      <c r="AS5" s="39">
         <v>12.807851760857263</v>
       </c>
-      <c r="AT5" s="29"/>
+      <c r="AT5" s="27"/>
     </row>
     <row r="6" spans="1:46" ht="15.75">
       <c r="D6" t="s">
@@ -23704,7 +24134,7 @@
       <c r="AA6" s="12">
         <v>11.482378513474547</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="23">
         <f>173.235411346938*0.6</f>
         <v>103.9412468081628</v>
       </c>
@@ -23732,30 +24162,30 @@
       <c r="AK6" s="12">
         <v>23.235821145735382</v>
       </c>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="60" t="s">
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="39">
+      <c r="AN6" s="37">
         <v>23.060372204081638</v>
       </c>
-      <c r="AO6" s="40">
+      <c r="AO6" s="38">
         <v>14.85094483747665</v>
       </c>
-      <c r="AP6" s="39">
+      <c r="AP6" s="37">
         <v>128.38769693877666</v>
       </c>
-      <c r="AQ6" s="40">
+      <c r="AQ6" s="38">
         <v>11.482378513474547</v>
       </c>
-      <c r="AR6" s="39">
+      <c r="AR6" s="37">
         <f>173.235411346938 * 0.6</f>
         <v>103.9412468081628</v>
       </c>
-      <c r="AS6" s="41">
+      <c r="AS6" s="39">
         <v>23.235821145735382</v>
       </c>
-      <c r="AT6" s="29"/>
+      <c r="AT6" s="27"/>
     </row>
     <row r="7" spans="1:46" ht="15.75">
       <c r="D7" t="s">
@@ -23821,29 +24251,29 @@
       <c r="AK7" s="12">
         <v>16.371628170412606</v>
       </c>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="60" t="s">
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AN7" s="39">
+      <c r="AN7" s="37">
         <v>24.355517121775517</v>
       </c>
-      <c r="AO7" s="40">
+      <c r="AO7" s="38">
         <v>17.472085512364</v>
       </c>
-      <c r="AP7" s="39">
+      <c r="AP7" s="37">
         <v>138.65597546530731</v>
       </c>
-      <c r="AQ7" s="40">
+      <c r="AQ7" s="38">
         <v>6.772731672518213</v>
       </c>
-      <c r="AR7" s="39">
+      <c r="AR7" s="37">
         <v>42.796422130611809</v>
       </c>
-      <c r="AS7" s="41">
+      <c r="AS7" s="39">
         <v>16.371628170412606</v>
       </c>
-      <c r="AT7" s="29"/>
+      <c r="AT7" s="27"/>
     </row>
     <row r="8" spans="1:46" ht="15.75">
       <c r="D8" t="s">
@@ -23909,29 +24339,29 @@
       <c r="AK8" s="12">
         <v>16.265329219752218</v>
       </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="60" t="s">
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AN8" s="39">
+      <c r="AN8" s="37">
         <v>37.186069959183662</v>
       </c>
-      <c r="AO8" s="40">
+      <c r="AO8" s="38">
         <v>14.850241997686163</v>
       </c>
-      <c r="AP8" s="39">
+      <c r="AP8" s="37">
         <v>183.2115121224478</v>
       </c>
-      <c r="AQ8" s="40">
+      <c r="AQ8" s="38">
         <v>7.296972233069174</v>
       </c>
-      <c r="AR8" s="39">
+      <c r="AR8" s="37">
         <v>115.84973551020366</v>
       </c>
-      <c r="AS8" s="41">
+      <c r="AS8" s="39">
         <v>16.265329219752218</v>
       </c>
-      <c r="AT8" s="29"/>
+      <c r="AT8" s="27"/>
     </row>
     <row r="9" spans="1:46" ht="16.5" thickBot="1">
       <c r="J9" s="4"/>
@@ -23982,29 +24412,29 @@
       <c r="AK9" s="12">
         <v>9.1609169978277656</v>
       </c>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="61" t="s">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AN9" s="43">
+      <c r="AN9" s="41">
         <v>39.156004204081619</v>
       </c>
-      <c r="AO9" s="44">
+      <c r="AO9" s="42">
         <v>23.520518842993702</v>
       </c>
-      <c r="AP9" s="43">
+      <c r="AP9" s="41">
         <v>7.2727680816338607</v>
       </c>
-      <c r="AQ9" s="44">
+      <c r="AQ9" s="42">
         <v>3.7018294549017585</v>
       </c>
-      <c r="AR9" s="43">
+      <c r="AR9" s="41">
         <v>105.24139840816285</v>
       </c>
-      <c r="AS9" s="45">
+      <c r="AS9" s="43">
         <v>9.1609169978277656</v>
       </c>
-      <c r="AT9" s="29"/>
+      <c r="AT9" s="27"/>
     </row>
     <row r="10" spans="1:46" ht="16.5" thickBot="1">
       <c r="D10" s="9" t="s">
@@ -24041,70 +24471,70 @@
         <f t="shared" si="0"/>
         <v>15.075808627901134</v>
       </c>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="49" t="s">
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="46">
+      <c r="AN10" s="44">
         <f>AVERAGE(AN4:AN9)</f>
         <v>32.980284721724487</v>
       </c>
-      <c r="AO10" s="47">
+      <c r="AO10" s="45">
         <f t="shared" ref="AO10:AS10" si="1">AVERAGE(AO4:AO9)</f>
         <v>18.260957317493936</v>
       </c>
-      <c r="AP10" s="46">
+      <c r="AP10" s="44">
         <f t="shared" si="1"/>
         <v>126.36954109659945</v>
       </c>
-      <c r="AQ10" s="47">
+      <c r="AQ10" s="45">
         <f t="shared" si="1"/>
         <v>8.0733355559358824</v>
       </c>
-      <c r="AR10" s="46">
+      <c r="AR10" s="44">
         <f t="shared" si="1"/>
         <v>106.06016006666624</v>
       </c>
-      <c r="AS10" s="48">
+      <c r="AS10" s="46">
         <f t="shared" si="1"/>
         <v>15.075808627901134</v>
       </c>
-      <c r="AT10" s="29"/>
+      <c r="AT10" s="27"/>
     </row>
     <row r="11" spans="1:46" ht="15.75">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20" t="s">
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
     </row>
     <row r="12" spans="1:46">
       <c r="D12" s="10" t="s">
@@ -24635,30 +25065,30 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20" t="s">
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20" t="s">
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
     </row>
     <row r="28" spans="1:21">
       <c r="D28" s="10" t="s">
@@ -25567,7 +25997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X247"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
@@ -39376,8 +39806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:AD9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -39416,38 +39846,38 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="16.5" thickBot="1">
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1">
-      <c r="V4" s="30"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="63" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="63" t="s">
+      <c r="Y4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="64" t="s">
+      <c r="Z4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="63" t="s">
+      <c r="AA4" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="63" t="s">
+      <c r="AC4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="29"/>
+      <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
       <c r="E5" t="s">
@@ -39459,29 +39889,29 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="65" t="s">
+      <c r="V5" s="27"/>
+      <c r="W5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="66">
+      <c r="X5" s="64">
         <v>14.321220326530609</v>
       </c>
-      <c r="Y5" s="66">
+      <c r="Y5" s="64">
         <v>9.7528125996814889</v>
       </c>
-      <c r="Z5" s="67">
+      <c r="Z5" s="65">
         <v>4.0354551428582948</v>
       </c>
-      <c r="AA5" s="66">
+      <c r="AA5" s="64">
         <v>1.6514173157597045</v>
       </c>
-      <c r="AB5" s="67">
+      <c r="AB5" s="65">
         <v>84.768485061224908</v>
       </c>
-      <c r="AC5" s="66">
+      <c r="AC5" s="64">
         <v>2.4998927479912481</v>
       </c>
-      <c r="AD5" s="29"/>
+      <c r="AD5" s="27"/>
     </row>
     <row r="6" spans="1:30" ht="15.75">
       <c r="D6" t="s">
@@ -39499,29 +39929,29 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="29"/>
-      <c r="W6" s="68" t="s">
+      <c r="V6" s="27"/>
+      <c r="W6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="69">
+      <c r="X6" s="67">
         <v>163.85187742857153</v>
       </c>
-      <c r="Y6" s="69">
+      <c r="Y6" s="67">
         <v>57.584815382371353</v>
       </c>
-      <c r="Z6" s="70">
+      <c r="Z6" s="68">
         <v>36.317941673470571</v>
       </c>
-      <c r="AA6" s="69">
+      <c r="AA6" s="67">
         <v>9.6522160335718805</v>
       </c>
-      <c r="AB6" s="70">
+      <c r="AB6" s="68">
         <v>25.307936734694252</v>
       </c>
-      <c r="AC6" s="69">
+      <c r="AC6" s="67">
         <v>12.457090225613635</v>
       </c>
-      <c r="AD6" s="29"/>
+      <c r="AD6" s="27"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickBot="1">
       <c r="D7" t="s">
@@ -39540,29 +39970,29 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="71" t="s">
+      <c r="V7" s="27"/>
+      <c r="W7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="72">
+      <c r="X7" s="70">
         <v>84.326396204081604</v>
       </c>
-      <c r="Y7" s="72">
+      <c r="Y7" s="70">
         <v>44.373595731223702</v>
       </c>
-      <c r="Z7" s="73">
+      <c r="Z7" s="71">
         <v>50.308531224488604</v>
       </c>
-      <c r="AA7" s="72">
+      <c r="AA7" s="70">
         <v>5.4778867845783301</v>
       </c>
-      <c r="AB7" s="73">
+      <c r="AB7" s="71">
         <v>55.235647632653496</v>
       </c>
-      <c r="AC7" s="72">
+      <c r="AC7" s="70">
         <v>8.5709948617078737</v>
       </c>
-      <c r="AD7" s="29"/>
+      <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
       <c r="D8" t="s">
@@ -39581,46 +40011,46 @@
       <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="29"/>
-      <c r="W8" s="63" t="s">
+      <c r="V8" s="27"/>
+      <c r="W8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="74">
+      <c r="X8" s="72">
         <f>AVERAGE(X5:X7)</f>
         <v>87.499831319727903</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="Y8" s="72">
         <f t="shared" ref="Y8:AC8" si="0">AVERAGE(Y5:Y7)</f>
         <v>37.23707457109218</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="73">
         <f t="shared" si="0"/>
         <v>30.220642680272491</v>
       </c>
-      <c r="AA8" s="74">
+      <c r="AA8" s="72">
         <f t="shared" si="0"/>
         <v>5.5938400446366385</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="73">
         <f t="shared" si="0"/>
         <v>55.104023142857557</v>
       </c>
-      <c r="AC8" s="74">
+      <c r="AC8" s="72">
         <f t="shared" si="0"/>
         <v>7.8426592784375861</v>
       </c>
-      <c r="AD8" s="29"/>
+      <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="1:30" ht="15.75">
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
     </row>
     <row r="10" spans="1:30">
       <c r="D10" s="9" t="s">
@@ -39628,30 +40058,30 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20" t="s">
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
     </row>
     <row r="12" spans="1:30">
       <c r="D12" s="10" t="s">
